--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28903FE4-1EBD-D24D-8A89-8CE36BF82F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B7B10-606F-0345-ADFA-C04F63C4C2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="4880" yWindow="1540" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -347,7 +347,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +398,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
@@ -440,11 +434,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -505,10 +499,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1117,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1306,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -1586,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1601,16 +1591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="18" t="s">
@@ -1652,16 +1642,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>1012</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="29">
         <v>16</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1680,16 +1670,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>1017</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>7</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B7B10-606F-0345-ADFA-C04F63C4C2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4D51E-7E6F-8648-B0CD-D14260471C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1540" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="4880" yWindow="2140" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CD Status'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HUC_Status!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1769,16 +1769,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23">
+      <c r="A13" s="27">
         <v>1009</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="27">
         <v>12</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="26" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4D51E-7E6F-8648-B0CD-D14260471C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6768401C-7468-604F-818C-F8D0D76C2D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="2140" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="3340" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
     <sheet name="HUC_Status" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CD Status'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CD Status'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HUC_Status!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Alberta</t>
   </si>
@@ -82,9 +82,6 @@
     <t>New Mexico</t>
   </si>
   <si>
-    <t>Nevada</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -112,12 +109,6 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
     <t>Wyoming</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>Powder-Tongue</t>
   </si>
   <si>
-    <t>graupel</t>
-  </si>
-  <si>
     <t>Lower Yellowstone</t>
   </si>
   <si>
@@ -269,13 +254,19 @@
   </si>
   <si>
     <t>sundog</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +336,27 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -438,7 +450,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -479,10 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -504,6 +512,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -532,7 +549,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6667500" cy="2882900"/>
@@ -1105,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1120,40 +1137,43 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="13">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="13">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="13">
         <v>9</v>
@@ -1162,54 +1182,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="13">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="13">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="13">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="13">
         <v>4200</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13">
         <v>7</v>
@@ -1218,12 +1238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="13">
         <v>4700</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="13">
         <v>9</v>
@@ -1232,12 +1252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="13">
         <v>4800</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="13">
         <v>10</v>
@@ -1246,325 +1266,717 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13">
-        <v>80000</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="13">
+    <row r="10" spans="1:5">
+      <c r="A10" s="11">
+        <v>40000</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13">
-        <v>400</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9">
+        <v>2100</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9">
+        <v>2200</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13">
-        <v>500</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11">
-        <v>40000</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>2300</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="9">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="9">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:13">
       <c r="A17" s="9">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9">
-        <v>2400</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7">
+        <v>100</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7">
+        <v>200</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7">
+        <v>300</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5">
+        <v>1100</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9">
-        <v>2500</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9">
-        <v>2600</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="C22" s="5">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5">
+        <v>1300</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>18</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="9">
-        <v>3</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9">
-        <v>2900</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1">
+      <c r="A29" s="3">
+        <v>70000</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
         <v>7</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7">
-        <v>100</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7">
-        <v>200</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7">
-        <v>300</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5">
-        <v>1100</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="5">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <v>1300</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <v>1400</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <v>1500</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>50000</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>60000</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1">
-      <c r="A33" s="3">
-        <v>70000</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>14</v>
-      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="7:13">
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+    </row>
+    <row r="34" spans="7:13">
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+    </row>
+    <row r="35" spans="7:13">
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+    </row>
+    <row r="36" spans="7:13">
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+    </row>
+    <row r="37" spans="7:13">
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="7:13">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+    </row>
+    <row r="39" spans="7:13">
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+    </row>
+    <row r="40" spans="7:13">
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+    </row>
+    <row r="41" spans="7:13">
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+    </row>
+    <row r="42" spans="7:13">
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+    </row>
+    <row r="43" spans="7:13">
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+    </row>
+    <row r="44" spans="7:13">
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+    </row>
+    <row r="45" spans="7:13">
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+    </row>
+    <row r="46" spans="7:13">
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+    </row>
+    <row r="47" spans="7:13">
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+    </row>
+    <row r="48" spans="7:13">
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+    </row>
+    <row r="49" spans="7:13">
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+    </row>
+    <row r="50" spans="7:13">
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+    </row>
+    <row r="51" spans="7:13">
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+    </row>
+    <row r="52" spans="7:13">
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+    </row>
+    <row r="53" spans="7:13">
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="7:13">
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="55" spans="7:13">
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+    </row>
+    <row r="56" spans="7:13">
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+    </row>
+    <row r="57" spans="7:13">
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+    </row>
+    <row r="58" spans="7:13">
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="7:13">
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+    </row>
+    <row r="60" spans="7:13">
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+    </row>
+    <row r="61" spans="7:13">
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+    </row>
+    <row r="62" spans="7:13">
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+    </row>
+    <row r="63" spans="7:13">
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+    </row>
+    <row r="64" spans="7:13">
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+    </row>
+    <row r="65" spans="7:13">
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+    </row>
+    <row r="66" spans="7:13">
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+    </row>
+    <row r="67" spans="7:13">
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+    </row>
+    <row r="68" spans="7:13">
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{A3CC9153-DA2A-9649-A26A-D3C1B1D4FEE8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
-      <sortCondition ref="D1:D33"/>
+  <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
+      <sortCondition ref="D1:D29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1591,223 +2003,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>34</v>
+      <c r="A1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="29">
+      <c r="A2" s="27">
         <v>1002</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="C2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="26">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29">
+      <c r="A3" s="27">
         <v>1003</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="C3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="26">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29">
+      <c r="A4" s="27">
         <v>1012</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>16</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="C4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29">
+      <c r="A5" s="27">
         <v>1016</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>10</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29">
+      <c r="A6" s="27">
         <v>1017</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>7</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>1004</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="C7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29">
+      <c r="A8" s="27">
         <v>1015</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>7</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="C8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="28">
         <v>0</v>
       </c>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>1014</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <v>9</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="C9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="29">
+      <c r="A10" s="27">
         <v>1013</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>18</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="28">
+      <c r="C10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25">
+      <c r="A11" s="36">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="36">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="23">
         <v>1006</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B12" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="27">
-        <v>5</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>58</v>
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>1009</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <v>12</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>56</v>
+      <c r="C13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>1007</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>8</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>54</v>
+      <c r="C14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="21" customFormat="1">
-      <c r="A15" s="23">
+      <c r="A15" s="25">
         <v>1011</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>52</v>
+      <c r="C15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="16"/>
     </row>
@@ -1819,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" s="19"/>
     </row>
@@ -1831,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -1843,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18" s="19"/>
     </row>
@@ -1855,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="19"/>
     </row>
@@ -1867,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" s="19"/>
     </row>
@@ -1879,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" s="19"/>
       <c r="H21" s="16">
@@ -1895,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="19"/>
     </row>
@@ -1907,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23" s="19"/>
     </row>
@@ -1919,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" s="19"/>
     </row>
@@ -1931,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="19"/>
     </row>
@@ -1943,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D26" s="19"/>
     </row>
@@ -1967,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -1979,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29" s="19"/>
     </row>
@@ -1991,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30" s="19"/>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6768401C-7468-604F-818C-F8D0D76C2D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1335A-914C-7F4F-A210-8DEF1E951D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="3340" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Alberta</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>7,8,9</t>
   </si>
 </sst>
 </file>
@@ -359,18 +356,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -381,12 +372,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,11 +431,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -469,14 +454,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -491,22 +468,22 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -519,8 +496,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -549,7 +530,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6667500" cy="2882900"/>
@@ -1124,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1137,846 +1118,846 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13">
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>200</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
+        <v>300</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9">
         <v>500</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13">
-        <v>3200</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="13">
+    <row r="6" spans="1:13">
+      <c r="A6" s="34">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="34">
+        <v>3</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="32">
+        <v>1100</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="32">
         <v>9</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13">
-        <v>3400</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="13">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13">
-        <v>3900</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="D7" s="33"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="32">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="32">
+        <v>1300</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32">
         <v>9</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13">
-        <v>4000</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="D9" s="33"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="32">
+        <v>1400</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="32">
+        <v>9</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="32">
+        <v>1500</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13">
-        <v>4200</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13">
-        <v>4700</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="D11" s="33"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7">
+        <v>2100</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13">
-        <v>4800</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13">
-        <v>10</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11">
-        <v>40000</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>2200</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9">
-        <v>2100</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
+        <v>2300</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9">
-        <v>2200</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="7">
+        <v>2400</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9">
-        <v>2300</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="9">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9">
-        <v>2400</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9">
-        <v>2500</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="9">
-        <v>2900</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7">
-        <v>100</v>
+        <v>2900</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="7">
-        <v>200</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="A19" s="9">
+        <v>3200</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7">
-        <v>300</v>
+        <v>3400</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="9">
+        <v>3900</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5">
-        <v>1100</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="9">
+        <v>4000</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="9">
+        <v>4200</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9">
+        <v>4700</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9">
         <v>9</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="5">
-        <v>1300</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9">
+        <v>4800</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7">
+        <v>40000</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5">
-        <v>1400</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="5">
-        <v>1500</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="32">
+        <v>50000</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="32">
+        <v>18</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="32">
+        <v>60000</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3">
-        <v>50000</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>18</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3">
-        <v>60000</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="C28" s="32">
         <v>14</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
-      <c r="A29" s="3">
+      <c r="A29" s="32">
         <v>70000</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="32">
         <v>7</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+      <c r="D29" s="33"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
-      <sortCondition ref="D1:D29"/>
+      <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,424 +1969,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="15.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27">
+      <c r="A2" s="23">
         <v>1002</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="23">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27">
+      <c r="A3" s="23">
         <v>1003</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>10</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>0</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27">
+      <c r="A4" s="23">
         <v>1012</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="23">
         <v>16</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27">
+      <c r="A5" s="23">
         <v>1016</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="23">
         <v>10</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27">
+      <c r="A6" s="23">
         <v>1017</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="23">
         <v>7</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27">
+      <c r="A7" s="23">
         <v>1004</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="23">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27">
+      <c r="A8" s="23">
         <v>1015</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="23">
         <v>7</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <v>0</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>1014</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="25">
         <v>9</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27">
+      <c r="A10" s="23">
         <v>1013</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="23">
         <v>18</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="36">
+      <c r="A11" s="23">
         <v>1010</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="23">
         <v>5</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23">
+      <c r="A12" s="19">
         <v>1006</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="19">
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>1009</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="21">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23">
+      <c r="A14" s="19">
         <v>1007</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>8</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1">
-      <c r="A15" s="25">
+    <row r="15" spans="1:5" s="17" customFormat="1">
+      <c r="A15" s="21">
         <v>1011</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <v>7</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20">
+      <c r="A16" s="16">
         <v>1005</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>16</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20">
+      <c r="A17" s="16">
         <v>1008</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>16</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20">
+      <c r="A18" s="16">
         <v>1018</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" s="21" customFormat="1">
-      <c r="A19" s="20">
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" s="17" customFormat="1">
+      <c r="A19" s="16">
         <v>1019</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <v>18</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>1020</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>6</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20">
+      <c r="A21" s="16">
         <v>1021</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>10</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="H21" s="16">
+      <c r="D21" s="15"/>
+      <c r="H21" s="12">
         <f>24-18</f>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20">
+      <c r="A22" s="16">
         <v>1022</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <v>4</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20">
+      <c r="A23" s="16">
         <v>1023</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <v>7</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20">
+      <c r="A24" s="16">
         <v>1024</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <v>13</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="20">
+      <c r="A25" s="16">
         <v>1025</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="16">
         <v>17</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="20">
+      <c r="A26" s="16">
         <v>1026</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="16">
         <v>15</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="20">
+      <c r="A27" s="16">
         <v>1027</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <v>11</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="20">
+      <c r="A28" s="16">
         <v>1028</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="16">
         <v>6</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="20">
+      <c r="A29" s="16">
         <v>1029</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="16">
         <v>14</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="20">
+      <c r="A30" s="16">
         <v>1030</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="16">
         <v>5</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1335A-914C-7F4F-A210-8DEF1E951D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DECB16-C61D-E24A-BD8B-F9E8B161E003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="3340" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Alberta</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Arizona</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -1105,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1120,19 +1117,19 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1140,13 +1137,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
@@ -1158,16 +1155,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -1178,17 +1175,17 @@
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="5">
-        <v>300</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>71</v>
+      <c r="A4" s="9">
+        <v>500</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
@@ -1199,30 +1196,30 @@
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="9">
-        <v>500</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="A5" s="34">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="34">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="34">
-        <v>3</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="A6" s="32">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="32">
+        <v>9</v>
+      </c>
+      <c r="D6" s="33"/>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
       <c r="I6" s="29"/>
@@ -1233,13 +1230,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="32">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="32">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="33"/>
       <c r="G7" s="29"/>
@@ -1252,13 +1249,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="32">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" s="33"/>
       <c r="G8" s="29"/>
@@ -1271,10 +1268,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="32">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="32">
         <v>9</v>
@@ -1289,16 +1286,18 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="32">
-        <v>1400</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="32">
-        <v>9</v>
-      </c>
-      <c r="D10" s="33"/>
+      <c r="A10" s="34">
+        <v>1500</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
       <c r="I10" s="29"/>
@@ -1308,16 +1307,18 @@
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="32">
-        <v>1500</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="A11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
@@ -1331,100 +1332,100 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="7">
-        <v>2900</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
+      <c r="A18" s="9">
+        <v>3200</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -1435,42 +1436,42 @@
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="9">
-        <v>3200</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="A19" s="7">
+        <v>3400</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9">
+        <v>3900</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9">
         <v>9</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="7">
-        <v>3400</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="9">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -1478,13 +1479,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="9">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -1492,13 +1493,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="9">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -1506,55 +1507,53 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="9">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="9">
-        <v>4800</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
+      <c r="A25" s="7">
+        <v>40000</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="7">
-        <v>40000</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="32">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32">
+        <v>18</v>
+      </c>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="32">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" s="33"/>
       <c r="G27" s="29"/>
@@ -1567,13 +1566,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="32">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28" s="33"/>
       <c r="G28" s="29"/>
@@ -1585,16 +1584,9 @@
       <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
-      <c r="A29" s="32">
-        <v>70000</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="32">
-        <v>7</v>
-      </c>
-      <c r="D29" s="33"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="G29" s="31"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
@@ -1956,8 +1948,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
-      <sortCondition ref="A1:A29"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M28">
+      <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1969,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1985,19 +1977,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2008,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="22">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2025,208 +2017,206 @@
         <v>10</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="23">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B4" s="23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23">
-        <v>1016</v>
-      </c>
-      <c r="B5" s="23">
-        <v>10</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
+      <c r="A5" s="16">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="16">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23">
-        <v>1017</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="19">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="19">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
+      <c r="C6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="23">
-        <v>11</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0</v>
+      <c r="A7" s="19">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="19">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23">
-        <v>1015</v>
-      </c>
-      <c r="B8" s="23">
-        <v>7</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17"/>
+      <c r="A8" s="16">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="16">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25">
-        <v>1014</v>
-      </c>
-      <c r="B9" s="25">
-        <v>9</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0</v>
+      <c r="A9" s="21">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="21">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="23">
-        <v>5</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="A11" s="21">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="21">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="23">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="23">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19">
-        <v>1006</v>
-      </c>
-      <c r="B12" s="19">
+    <row r="13" spans="1:5">
+      <c r="A13" s="23">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="23">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="25">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="17" customFormat="1">
+      <c r="A15" s="23">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="23">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="21">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="21">
-        <v>12</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="19">
-        <v>1007</v>
-      </c>
-      <c r="B14" s="19">
-        <v>8</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="17" customFormat="1">
-      <c r="A15" s="21">
-        <v>1011</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="C15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="23">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="23">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="23">
         <v>7</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="16">
-        <v>1005</v>
-      </c>
-      <c r="B16" s="16">
-        <v>16</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16">
-        <v>1008</v>
-      </c>
-      <c r="B17" s="16">
-        <v>16</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="15"/>
+      <c r="C17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16">
@@ -2236,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="15"/>
     </row>
@@ -2248,7 +2238,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="15"/>
     </row>
@@ -2260,10 +2250,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2274,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="15"/>
       <c r="H21" s="12">
@@ -2290,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="15"/>
     </row>
@@ -2302,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="15"/>
     </row>
@@ -2314,7 +2304,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="15"/>
     </row>
@@ -2326,7 +2316,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="15"/>
     </row>
@@ -2338,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="15"/>
     </row>
@@ -2362,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="15"/>
     </row>
@@ -2374,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="15"/>
     </row>
@@ -2386,14 +2376,14 @@
         <v>5</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="D1:D30"/>
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DECB16-C61D-E24A-BD8B-F9E8B161E003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9022734-0B01-2747-82C0-6BCE0B267D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="4560" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1286,16 +1286,16 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="34">
+      <c r="A10" s="5">
         <v>1500</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="29"/>
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2053,16 +2053,16 @@
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19">
+      <c r="A6" s="21">
         <v>1006</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="21">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9022734-0B01-2747-82C0-6BCE0B267D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C42D61-ACCD-4B40-BE3F-897929348024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="5140" yWindow="540" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Alberta</t>
   </si>
@@ -386,14 +386,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
-        <bgColor rgb="FFE6E6E6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,11 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -473,14 +473,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -499,6 +491,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -527,7 +531,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6667500" cy="2882900"/>
@@ -1103,7 +1107,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1133,223 +1137,186 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="A2" s="9">
+        <v>500</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5">
-        <v>300</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="A3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="34">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="9">
+        <v>3200</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="32">
-        <v>1100</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="9">
+        <v>3400</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
         <v>7</v>
       </c>
-      <c r="C6" s="32">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9">
+        <v>3900</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
         <v>9</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="32">
-        <v>1200</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="32">
-        <v>3</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="32">
-        <v>1300</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="A8" s="9">
+        <v>4000</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="9">
+        <v>4200</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9">
+        <v>4700</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9">
         <v>9</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="32">
-        <v>1400</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="32">
-        <v>9</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5">
-        <v>1500</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="A11" s="9">
+        <v>4800</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7">
-        <v>2100</v>
+        <v>40000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1357,16 +1324,26 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1374,13 +1351,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
@@ -1388,13 +1365,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
@@ -1402,554 +1379,583 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9">
-        <v>3200</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="9">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="A18" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5">
+        <v>100</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5">
+        <v>300</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="28">
+        <v>1100</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="9">
-        <v>3900</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="C22" s="28">
         <v>9</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D22" s="29"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="28">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="28">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="28">
+        <v>1300</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="28">
+        <v>9</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="30">
+        <v>1400</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="30">
+        <v>9</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="28">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="28">
+        <v>18</v>
+      </c>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="28">
+        <v>60000</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="28">
+        <v>14</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="28">
+        <v>70000</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="9">
-        <v>4000</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="9">
-        <v>4200</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="C28" s="28">
         <v>7</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="9">
-        <v>4700</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="9">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="9">
-        <v>4800</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="7">
-        <v>40000</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="32">
-        <v>50000</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="32">
-        <v>18</v>
-      </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="32">
-        <v>60000</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="32">
-        <v>14</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="32">
-        <v>70000</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="32">
-        <v>7</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M28">
-      <sortCondition ref="A1:A28"/>
+      <sortCondition ref="D1:D28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1962,7 +1968,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1976,16 +1982,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -1993,16 +1999,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23">
+      <c r="A2" s="32">
         <v>1002</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="32">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="33">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2010,16 +2016,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23">
+      <c r="A3" s="32">
         <v>1003</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="32">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="33">
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -2027,234 +2033,238 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23">
+      <c r="A4" s="32">
         <v>1004</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="32">
         <v>11</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16">
+      <c r="A5" s="32">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="32">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="32">
+        <v>1010</v>
+      </c>
+      <c r="B6" s="32">
+        <v>5</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32">
+        <v>1012</v>
+      </c>
+      <c r="B7" s="32">
+        <v>16</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="32">
+        <v>18</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="36">
+        <v>1014</v>
+      </c>
+      <c r="B9" s="36">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="32">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="32">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32">
+        <v>1016</v>
+      </c>
+      <c r="B11" s="32">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="32">
+        <v>1017</v>
+      </c>
+      <c r="B12" s="32">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21">
+        <v>1006</v>
+      </c>
+      <c r="B13" s="21">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34">
+        <v>1020</v>
+      </c>
+      <c r="B14" s="34">
+        <v>6</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="17" customFormat="1">
+      <c r="A15" s="19">
+        <v>1007</v>
+      </c>
+      <c r="B15" s="19">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21">
+        <v>1011</v>
+      </c>
+      <c r="B16" s="21">
+        <v>7</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="16">
         <v>1005</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B17" s="16">
         <v>16</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="21">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="21">
-        <v>7</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="19">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="19">
-        <v>8</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="16">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="16">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="21">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="21">
-        <v>12</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="23">
-        <v>5</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="21">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="21">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="23">
-        <v>16</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23">
-        <v>1013</v>
-      </c>
-      <c r="B13" s="23">
-        <v>18</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="25">
-        <v>1014</v>
-      </c>
-      <c r="B14" s="25">
-        <v>9</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="17" customFormat="1">
-      <c r="A15" s="23">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="23">
-        <v>7</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="23">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="23">
-        <v>10</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="23">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="23">
-        <v>7</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="B18" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1">
       <c r="A19" s="16">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="16">
+        <v>14</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="16">
         <v>1019</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="19">
-        <v>1020</v>
-      </c>
-      <c r="B20" s="19">
-        <v>6</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="16">
@@ -2273,16 +2283,18 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="16">
+      <c r="A22" s="19">
         <v>1022</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="19">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="16">
@@ -2383,7 +2395,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="A1:A30"/>
+      <sortCondition ref="D1:D30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C42D61-ACCD-4B40-BE3F-897929348024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0300A3AB-0FBC-E94B-9940-5D6973927A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="540" windowWidth="27640" windowHeight="16940" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="11560" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Alberta</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>graupel</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,10 +498,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -503,6 +508,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1519,18 +1528,16 @@
       <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="30">
+      <c r="A25" s="36">
         <v>1400</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="36">
         <v>9</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>51</v>
-      </c>
+      <c r="D25" s="37"/>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="25"/>
@@ -1965,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1981,7 +1988,7 @@
     <col min="6" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15">
       <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
@@ -1998,168 +2005,172 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="32">
+    <row r="2" spans="1:15">
+      <c r="A2" s="30">
         <v>1002</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="30">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="31">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32">
+    <row r="3" spans="1:15">
+      <c r="A3" s="30">
         <v>1003</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <v>10</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32">
+    <row r="4" spans="1:15">
+      <c r="A4" s="30">
         <v>1004</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32">
+    <row r="5" spans="1:15">
+      <c r="A5" s="30">
         <v>1009</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="32">
+    <row r="6" spans="1:15">
+      <c r="A6" s="30">
         <v>1010</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>5</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="32">
+    <row r="7" spans="1:15">
+      <c r="A7" s="30">
         <v>1012</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>16</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="32">
+    <row r="8" spans="1:15">
+      <c r="A8" s="30">
         <v>1013</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>18</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="36">
+    <row r="9" spans="1:15">
+      <c r="A9" s="34">
         <v>1014</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>9</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="32">
+    <row r="10" spans="1:15">
+      <c r="A10" s="30">
         <v>1015</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>7</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="35">
         <v>0</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="32">
+    <row r="11" spans="1:15">
+      <c r="A11" s="30">
         <v>1016</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="32">
+    <row r="12" spans="1:15">
+      <c r="A12" s="30">
         <v>1017</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <v>7</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="O12" s="12">
+        <f>24-15-4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="21">
         <v>1006</v>
       </c>
@@ -2172,22 +2183,26 @@
       <c r="D13" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="34">
+      <c r="O13" s="12">
+        <f>24-7-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="32">
         <v>1020</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>6</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="17" customFormat="1">
+    <row r="15" spans="1:15" s="17" customFormat="1">
       <c r="A15" s="19">
         <v>1007</v>
       </c>
@@ -2202,7 +2217,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:15">
       <c r="A16" s="21">
         <v>1011</v>
       </c>
@@ -2217,16 +2232,18 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="16">
+      <c r="A17" s="19">
         <v>1005</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="19">
         <v>16</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16">
@@ -2297,16 +2314,18 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="16">
+      <c r="A23" s="19">
         <v>1023</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="19">
         <v>7</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="18" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="16">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0300A3AB-0FBC-E94B-9940-5D6973927A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202772-C611-8040-8A83-8042B3EF617D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="16600" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -441,7 +441,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -500,6 +500,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1528,16 +1532,16 @@
       <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="36">
+      <c r="A25" s="38">
         <v>1400</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="38">
         <v>9</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="39"/>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="25"/>
@@ -1974,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2054,113 +2058,110 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="30">
+      <c r="A5" s="19">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="19">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="32">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="32">
+        <v>7</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="19">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="19">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="16">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="30">
         <v>1009</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B9" s="30">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="30">
-        <v>1010</v>
-      </c>
-      <c r="B6" s="30">
-        <v>5</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="30">
-        <v>1012</v>
-      </c>
-      <c r="B7" s="30">
-        <v>16</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="30">
-        <v>1013</v>
-      </c>
-      <c r="B8" s="30">
-        <v>18</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="34">
-        <v>1014</v>
-      </c>
-      <c r="B9" s="34">
-        <v>9</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="30">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="30">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="35">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="30">
-        <v>1016</v>
-      </c>
-      <c r="B11" s="30">
-        <v>10</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="31">
-        <v>0</v>
+      <c r="C11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="30">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="30">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="31">
         <v>0</v>
@@ -2171,17 +2172,17 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="21">
-        <v>1006</v>
-      </c>
-      <c r="B13" s="21">
-        <v>7</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>54</v>
+      <c r="A13" s="30">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="30">
+        <v>18</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0</v>
       </c>
       <c r="O13" s="12">
         <f>24-7-1</f>
@@ -2189,99 +2190,98 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="32">
-        <v>1020</v>
-      </c>
-      <c r="B14" s="32">
-        <v>6</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>51</v>
+      <c r="A14" s="36">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="36">
+        <v>9</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="17" customFormat="1">
-      <c r="A15" s="19">
-        <v>1007</v>
-      </c>
-      <c r="B15" s="19">
-        <v>8</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="A15" s="30">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="30">
+        <v>7</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="21">
-        <v>1011</v>
-      </c>
-      <c r="B16" s="21">
+      <c r="A16" s="30">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="30">
+        <v>10</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="30">
         <v>7</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="19">
-        <v>1005</v>
-      </c>
-      <c r="B17" s="19">
-        <v>16</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>51</v>
+      <c r="C17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="B18" s="16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1">
       <c r="A19" s="16">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B19" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="16">
-        <v>1019</v>
-      </c>
-      <c r="B20" s="16">
-        <v>18</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="34">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="34">
+        <v>6</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="16">
@@ -2414,7 +2414,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="D1:D30"/>
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202772-C611-8040-8A83-8042B3EF617D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA469E08-1732-D442-8520-A44CA3D73404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Alberta</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Alabama</t>
   </si>
   <si>
-    <t>frost</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -181,15 +178,9 @@
     <t>Milk</t>
   </si>
   <si>
-    <t>suestada</t>
-  </si>
-  <si>
     <t>Missouri-Little Missouri</t>
   </si>
   <si>
-    <t>mist</t>
-  </si>
-  <si>
     <t>Upper Yellowstone</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>Lower Yellowstone</t>
   </si>
   <si>
-    <t>bora</t>
-  </si>
-  <si>
     <t>Missouri-Poplar</t>
   </si>
   <si>
@@ -250,20 +238,17 @@
     <t xml:space="preserve">cd </t>
   </si>
   <si>
-    <t>sundog</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>graupel</t>
+    <t xml:space="preserve">mv -=v </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +340,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,25 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,11 +424,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -452,10 +439,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -474,10 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -506,16 +485,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1120,7 +1103,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1133,304 +1116,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>500</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7">
+        <v>3200</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7">
+        <v>3400</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7">
+        <v>3900</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7">
+        <v>4200</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
+        <v>4700</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7">
+        <v>4800</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="9">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>40000</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="24">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="24">
+        <v>2100</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="24">
+        <v>9</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="24">
+        <v>2200</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="24">
+        <v>2300</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24">
+        <v>6</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="24">
+        <v>2400</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="24">
+        <v>6</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="24">
+        <v>2500</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="24">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="9">
-        <v>1500</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9">
-        <v>3200</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="9">
-        <v>3400</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="9">
-        <v>3900</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="9">
-        <v>4000</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="9">
-        <v>4200</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="9">
-        <v>4700</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="9">
-        <v>4800</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7">
-        <v>40000</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="24">
+        <v>2900</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7">
-        <v>2100</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="7">
-        <v>2200</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7">
-        <v>2300</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="7">
-        <v>2400</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="7">
-        <v>2900</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -1442,16 +1406,14 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="D20" s="4"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -1463,505 +1425,503 @@
       <c r="C21" s="5">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="D21" s="4"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="28">
+      <c r="A22" s="24">
         <v>1100</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>9</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="28">
+      <c r="A23" s="24">
         <v>1200</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="24">
         <v>3</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="28">
+      <c r="A24" s="24">
         <v>1300</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="24">
         <v>9</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="38">
+      <c r="A25" s="32">
         <v>1400</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="32">
         <v>9</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="D25" s="33"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="28">
+      <c r="A26" s="24">
         <v>50000</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="24">
         <v>18</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="28">
+      <c r="A27" s="24">
         <v>60000</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="24">
         <v>14</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="28">
+      <c r="A28" s="24">
         <v>70000</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="24">
         <v>7</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
@@ -1978,438 +1938,456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="15.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>66</v>
+      <c r="A1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="30">
+      <c r="A2" s="26">
         <v>1002</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="26">
         <v>8</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="C2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="27">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>63</v>
+      <c r="E2" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="30">
+      <c r="A3" s="34">
         <v>1003</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="34">
         <v>10</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="31">
+      <c r="C3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="35">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>63</v>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="30">
+      <c r="A4" s="26">
         <v>1004</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="26">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="31">
+      <c r="C4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="19">
+      <c r="A5" s="36">
         <v>1005</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="36">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="28">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="28">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="36">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="36">
+        <v>8</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="14">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="14">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="26">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="26">
+        <v>12</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="26">
+        <v>5</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="17">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="32">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="32">
-        <v>7</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="19">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="19">
-        <v>8</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="16">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="26">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="26">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="30">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="30">
-        <v>12</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="30">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="30">
-        <v>5</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="21">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="21">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="30">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="30">
-        <v>16</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
+      <c r="O12" s="10">
         <f>24-15-4</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="30">
+      <c r="A13" s="26">
         <v>1013</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="26">
         <v>18</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="C13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="27">
         <v>0</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <f>24-7-1</f>
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="36">
+      <c r="A14" s="30">
         <v>1014</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="30">
         <v>9</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="15" customFormat="1">
+      <c r="A15" s="26">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="26">
+        <v>7</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="26">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="26">
+        <v>10</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D16" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="17" customFormat="1">
-      <c r="A15" s="30">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="30">
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10">
+        <f>24-16-7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="26">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="26">
         <v>7</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="37">
+      <c r="C17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="30">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="30">
+      <c r="F17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="10">
+        <v>24</v>
+      </c>
+      <c r="H17" s="10">
+        <f>24-16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="14">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="15" customFormat="1">
+      <c r="A19" s="14">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="14">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="17">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="14">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="30">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="30">
-        <v>7</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16">
-        <v>1018</v>
-      </c>
-      <c r="B18" s="16">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1">
-      <c r="A19" s="16">
-        <v>1019</v>
-      </c>
-      <c r="B19" s="16">
-        <v>18</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34">
-        <v>1020</v>
-      </c>
-      <c r="B20" s="34">
-        <v>6</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="16">
-        <v>1021</v>
-      </c>
-      <c r="B21" s="16">
-        <v>10</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="H21" s="12">
+      <c r="C21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="H21" s="10">
         <f>24-18</f>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19">
+      <c r="A22" s="36">
         <v>1022</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="36">
         <v>4</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="C22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19">
+      <c r="A23" s="36">
         <v>1023</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="36">
         <v>7</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>72</v>
+      <c r="C23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>1024</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>13</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="15"/>
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>1025</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>17</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="15"/>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>1026</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>15</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="C26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>1027</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>11</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>1028</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>6</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="15"/>
+      <c r="C28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>1029</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="15"/>
+      <c r="C29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>1030</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>5</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="15"/>
+      <c r="C30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA469E08-1732-D442-8520-A44CA3D73404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B01DE-4435-2E48-9126-691C2734A464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -349,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +430,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -457,6 +463,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -489,12 +499,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1145,13 +1155,13 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7">
@@ -1180,13 +1190,13 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
@@ -1201,13 +1211,13 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7">
@@ -1306,95 +1316,95 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="24">
+      <c r="A13" s="26">
         <v>2000</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="26">
         <v>1</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="D13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="24">
+      <c r="A14" s="26">
         <v>2100</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="26">
         <v>9</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="24">
+      <c r="A15" s="26">
         <v>2200</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="26">
         <v>1</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="24">
+      <c r="A16" s="26">
         <v>2300</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="26">
         <v>6</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="24">
+      <c r="A17" s="26">
         <v>2400</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="26">
         <v>6</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="24">
+      <c r="A18" s="26">
         <v>2500</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="26">
         <v>8</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="24">
+      <c r="A19" s="26">
         <v>2900</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="26">
         <v>2</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -1407,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -1426,502 +1436,502 @@
         <v>6</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="24">
+      <c r="A22" s="26">
         <v>1100</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="26">
         <v>9</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="D22" s="27"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="24">
+      <c r="A23" s="26">
         <v>1200</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="26">
         <v>3</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="D23" s="27"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="24">
+      <c r="A24" s="26">
         <v>1300</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="26">
         <v>9</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="D24" s="27"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="32">
+      <c r="A25" s="34">
         <v>1400</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="34">
         <v>9</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="D25" s="35"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="24">
+      <c r="A26" s="26">
         <v>50000</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="26">
         <v>18</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="24">
+      <c r="A27" s="26">
         <v>60000</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="26">
         <v>14</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="D27" s="27"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="24">
+      <c r="A28" s="26">
         <v>70000</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="26">
         <v>7</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="D28" s="27"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
@@ -1939,7 +1949,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1953,16 +1963,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -1970,16 +1980,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="26">
+      <c r="A2" s="28">
         <v>1002</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="29">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1987,16 +1997,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="34">
+      <c r="A3" s="36">
         <v>1003</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="36">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -2004,124 +2014,124 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="26">
+      <c r="A4" s="28">
         <v>1004</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="28">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="36">
+      <c r="A5" s="38">
         <v>1005</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="38">
         <v>16</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="28">
+      <c r="A6" s="30">
         <v>1006</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="30">
         <v>7</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="36">
+      <c r="A7" s="17">
         <v>1007</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="17">
         <v>8</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="14">
+      <c r="A8" s="17">
         <v>1008</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="17">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="26">
+      <c r="A9" s="28">
         <v>1009</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="28">
         <v>12</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="26">
+      <c r="A10" s="28">
         <v>1010</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="28">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>1011</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="19">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="26">
+      <c r="A12" s="28">
         <v>1012</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="28">
         <v>16</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
       <c r="O12" s="10">
@@ -2130,16 +2140,16 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="26">
+      <c r="A13" s="28">
         <v>1013</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="28">
         <v>18</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
       <c r="O13" s="10">
@@ -2148,30 +2158,30 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="30">
+      <c r="A14" s="32">
         <v>1014</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="32">
         <v>9</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="26">
+      <c r="A15" s="28">
         <v>1015</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="28">
         <v>7</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="33">
         <v>0</v>
       </c>
       <c r="G15" s="15">
@@ -2179,16 +2189,16 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="26">
+      <c r="A16" s="28">
         <v>1016</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="28">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="29">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2198,21 +2208,21 @@
         <v>24</v>
       </c>
       <c r="H16" s="10">
-        <f>24-16-7</f>
-        <v>1</v>
+        <f>24-16-8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26">
+      <c r="A17" s="28">
         <v>1017</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="28">
         <v>7</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="29">
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2251,16 +2261,16 @@
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17">
+      <c r="A20" s="19">
         <v>1020</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="19">
         <v>6</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14">
@@ -2279,28 +2289,28 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="36">
+      <c r="A22" s="38">
         <v>1022</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="38">
         <v>4</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36">
+      <c r="A23" s="38">
         <v>1023</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="38">
         <v>7</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="10" t="s">
         <v>67</v>
       </c>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B01DE-4435-2E48-9126-691C2734A464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBAC5C7-7490-FA49-9826-69D1C104CC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -1949,7 +1949,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B6:D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2208,8 +2208,8 @@
         <v>24</v>
       </c>
       <c r="H16" s="10">
-        <f>24-16-8</f>
-        <v>0</v>
+        <f>24-16</f>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBAC5C7-7490-FA49-9826-69D1C104CC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FD1CC-ED69-A34C-A592-F9139196F273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Alberta</t>
   </si>
@@ -1949,7 +1949,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1995,6 +1995,9 @@
       <c r="E2" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="H2" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="36">
@@ -2009,9 +2012,6 @@
       <c r="D3" s="37">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="28">
@@ -2028,16 +2028,16 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="38">
+      <c r="A5" s="17">
         <v>1005</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="17">
         <v>16</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2051,7 +2051,9 @@
       <c r="C6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="17">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FD1CC-ED69-A34C-A592-F9139196F273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26208FB-CA92-CD40-B1CB-D9FFC0AC6B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -1949,7 +1949,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2210,8 +2210,8 @@
         <v>24</v>
       </c>
       <c r="H16" s="10">
-        <f>24-16</f>
-        <v>8</v>
+        <f>24-16-8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2234,8 +2234,8 @@
         <v>24</v>
       </c>
       <c r="H17" s="10">
-        <f>24-16</f>
-        <v>8</v>
+        <f>24-16-7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26208FB-CA92-CD40-B1CB-D9FFC0AC6B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7574761-BF2D-9341-BC43-ED364DBFBBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Alberta</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Alabama</t>
   </si>
   <si>
+    <t>frost</t>
+  </si>
+  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">mv -=v </t>
+  </si>
+  <si>
+    <t>Bora</t>
   </si>
 </sst>
 </file>
@@ -1127,19 +1133,19 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1147,7 +1153,7 @@
         <v>500</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>
@@ -1203,7 +1209,7 @@
         <v>3200</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
@@ -1224,7 +1230,7 @@
         <v>3400</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -1238,7 +1244,7 @@
         <v>3900</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>9</v>
@@ -1252,7 +1258,7 @@
         <v>4000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>4200</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -1280,7 +1286,7 @@
         <v>4700</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -1294,7 +1300,7 @@
         <v>4800</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -1308,7 +1314,7 @@
         <v>40000</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5">
         <v>9</v>
@@ -1320,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="26">
         <v>1</v>
@@ -1339,7 +1345,7 @@
         <v>2100</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="26">
         <v>9</v>
@@ -1351,7 +1357,7 @@
         <v>2200</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -1363,7 +1369,7 @@
         <v>2300</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="26">
         <v>6</v>
@@ -1375,7 +1381,7 @@
         <v>2400</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="26">
         <v>6</v>
@@ -1387,7 +1393,7 @@
         <v>2500</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="26">
         <v>8</v>
@@ -1399,7 +1405,7 @@
         <v>2900</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="26">
         <v>2</v>
@@ -1949,7 +1955,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C22" sqref="C21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1964,19 +1970,19 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1987,16 +1993,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="29">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2007,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="37">
         <v>0</v>
@@ -2021,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="29">
         <v>0</v>
@@ -2035,10 +2041,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2049,10 +2055,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2063,10 +2069,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2077,10 +2083,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2091,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="29">
         <v>0</v>
@@ -2105,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="29">
         <v>0</v>
@@ -2119,9 +2125,11 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="28">
@@ -2131,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="29">
         <v>0</v>
@@ -2149,7 +2157,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="29">
         <v>0</v>
@@ -2167,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="33">
         <v>0</v>
@@ -2181,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="33">
         <v>0</v>
@@ -2198,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="29">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="10">
         <v>24</v>
@@ -2222,13 +2230,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="29">
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="10">
         <v>24</v>
@@ -2246,7 +2254,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13"/>
     </row>
@@ -2258,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="13"/>
     </row>
@@ -2270,9 +2278,11 @@
         <v>6</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14">
@@ -2282,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="13"/>
       <c r="H21" s="10">
@@ -2298,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="39"/>
     </row>
@@ -2310,11 +2320,11 @@
         <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2325,7 +2335,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="13"/>
     </row>
@@ -2337,7 +2347,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="13"/>
     </row>
@@ -2349,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="13"/>
     </row>
@@ -2373,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -2385,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="13"/>
     </row>
@@ -2397,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="13"/>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7574761-BF2D-9341-BC43-ED364DBFBBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C3036-A6CB-754D-BE6D-D80E0AF109AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="10760" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Alberta</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Bora</t>
+  </si>
+  <si>
+    <t>graupel</t>
+  </si>
+  <si>
+    <t>sundog</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1961,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:F22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2285,32 +2291,36 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14">
+      <c r="A21" s="17">
         <v>1021</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="17">
         <v>10</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="H21" s="10">
         <f>24-18</f>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38">
+      <c r="A22" s="17">
         <v>1022</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="17">
         <v>4</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="38">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C3036-A6CB-754D-BE6D-D80E0AF109AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FA8CD-933C-394B-B828-5FD1F2B8D4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="16300" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Alberta</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>sundog</t>
+  </si>
+  <si>
+    <t>suestada</t>
+  </si>
+  <si>
+    <t>mist</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -517,10 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1961,7 +1963,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2100,7 +2102,7 @@
         <v>1009</v>
       </c>
       <c r="B9" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>50</v>
@@ -2124,16 +2126,16 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="19">
+      <c r="A11" s="30">
         <v>1011</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="30">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="31" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2323,16 +2325,18 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="38">
+      <c r="A23" s="17">
         <v>1023</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="17">
         <v>7</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="10" t="s">
         <v>68</v>
       </c>
@@ -2386,16 +2390,18 @@
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="17">
         <v>1028</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="17">
         <v>6</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="14">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FA8CD-933C-394B-B828-5FD1F2B8D4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C211B-915E-7645-9D53-FC3CFD15EC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="5960" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Alberta</t>
   </si>
@@ -452,7 +452,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -523,6 +523,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1963,7 +1967,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2070,18 +2074,16 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="17">
+      <c r="A7" s="38">
         <v>1007</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="38">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="17">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C211B-915E-7645-9D53-FC3CFD15EC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583ABDF1-A176-3244-88BB-F67BB74950D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Alberta</t>
   </si>
@@ -175,18 +175,12 @@
     <t>North Platte</t>
   </si>
   <si>
-    <t>Big Horn</t>
-  </si>
-  <si>
     <t>Milk</t>
   </si>
   <si>
     <t>Missouri-Little Missouri</t>
   </si>
   <si>
-    <t>Upper Yellowstone</t>
-  </si>
-  <si>
     <t>Maelstrom</t>
   </si>
   <si>
@@ -260,6 +254,12 @@
   </si>
   <si>
     <t>mist</t>
+  </si>
+  <si>
+    <t>UpperYellowstone</t>
+  </si>
+  <si>
+    <t>BigHorn</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1967,7 +1967,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1982,19 +1982,19 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2005,16 +2005,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="29">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2025,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="37">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="29">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2067,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2081,9 +2081,11 @@
         <v>8</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="17">
@@ -2093,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>19</v>
@@ -2107,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="29">
         <v>0</v>
@@ -2121,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="29">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2149,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="29">
         <v>0</v>
@@ -2167,7 +2169,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="29">
         <v>0</v>
@@ -2185,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="33">
         <v>0</v>
@@ -2199,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="33">
         <v>0</v>
@@ -2216,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="29">
         <v>0</v>
@@ -2240,13 +2242,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="29">
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="10">
         <v>24</v>
@@ -2305,7 +2307,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="10">
         <f>24-18</f>
@@ -2323,7 +2325,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2337,10 +2339,10 @@
         <v>39</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2402,7 +2404,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583ABDF1-A176-3244-88BB-F67BB74950D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF648D9-93A9-2040-BE45-574142DA8CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Alberta</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv -=v </t>
   </si>
   <si>
     <t>Bora</t>
@@ -525,8 +522,8 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1967,7 +1964,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2060,16 +2057,16 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="30">
+      <c r="A6" s="19">
         <v>1006</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="19">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2081,23 +2078,23 @@
         <v>8</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="17">
+      <c r="A8" s="30">
         <v>1008</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="30">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2140,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2307,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="10">
         <f>24-18</f>
@@ -2315,34 +2312,31 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="19">
         <v>1022</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="19">
         <v>4</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="30">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="30">
+        <v>7</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17">
-        <v>1023</v>
-      </c>
-      <c r="B23" s="17">
-        <v>7</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2394,17 +2388,17 @@
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17">
+      <c r="A28" s="30">
         <v>1028</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="30">
         <v>6</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>71</v>
+      <c r="D28" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF648D9-93A9-2040-BE45-574142DA8CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A636B61-6B42-3448-B78E-E899B14DC066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="240" yWindow="1100" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A636B61-6B42-3448-B78E-E899B14DC066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EC967-72C5-6049-AF33-9AD39B654374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1100" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -449,7 +455,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -524,6 +530,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1963,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2280,17 +2294,17 @@
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19">
+      <c r="A20" s="40">
         <v>1020</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="40">
         <v>6</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>11</v>
+      <c r="D20" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2414,16 +2428,18 @@
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="42">
         <v>1030</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="42">
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="43" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EC967-72C5-6049-AF33-9AD39B654374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C23F98-C506-1C49-9467-5B9225AA4EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="20100" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +419,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -455,7 +461,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -538,6 +544,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1978,7 +1988,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2071,16 +2081,16 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="19">
+      <c r="A6" s="44">
         <v>1006</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="44">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2141,16 +2151,16 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="30">
+      <c r="A11" s="19">
         <v>1011</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="19">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="18" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C23F98-C506-1C49-9467-5B9225AA4EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB024EE-589E-A44D-B40C-36AE93B9CBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20100" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -250,13 +250,13 @@
     <t>suestada</t>
   </si>
   <si>
-    <t>mist</t>
-  </si>
-  <si>
     <t>UpperYellowstone</t>
   </si>
   <si>
     <t>BigHorn</t>
+  </si>
+  <si>
+    <t>mist Maelstrom</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +461,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -490,10 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1194,13 +1190,13 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7">
@@ -1229,13 +1225,13 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
@@ -1250,13 +1246,13 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7">
@@ -1355,95 +1351,95 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>2000</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>2100</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>9</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>2200</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>1</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>2300</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>6</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>2400</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>6</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>2500</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>8</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>2900</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -1456,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -1475,502 +1471,502 @@
         <v>6</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="26">
+      <c r="A22" s="24">
         <v>1100</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>9</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="26">
+      <c r="A23" s="24">
         <v>1200</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>3</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="26">
+      <c r="A24" s="24">
         <v>1300</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>9</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="34">
+      <c r="A25" s="32">
         <v>1400</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="32">
         <v>9</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
+      <c r="D25" s="33"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="26">
+      <c r="A26" s="24">
         <v>50000</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>18</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="26">
+      <c r="A27" s="24">
         <v>60000</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>14</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>70000</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>7</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
+      <c r="D28" s="25"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
@@ -1988,7 +1984,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2002,16 +1998,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -2019,16 +2015,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <v>1002</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2039,142 +2035,142 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="36">
+      <c r="A3" s="34">
         <v>1003</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>1004</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="17">
+      <c r="A5" s="42">
         <v>1005</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="42">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="44">
+      <c r="A6" s="26">
         <v>1006</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="26">
         <v>7</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="38">
+      <c r="A7" s="36">
         <v>1007</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <v>8</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="28">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="28">
+        <v>16</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="30">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="30">
+    <row r="9" spans="1:15">
+      <c r="A9" s="26">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="26">
+        <v>11</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="26">
+        <v>5</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="17">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="26">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="26">
         <v>16</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="28">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="28">
-        <v>11</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="28">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="28">
-        <v>5</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="19">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="19">
-        <v>7</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="28">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="28">
-        <v>16</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>0</v>
       </c>
       <c r="O12" s="10">
@@ -2183,16 +2179,16 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>1013</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>18</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>0</v>
       </c>
       <c r="O13" s="10">
@@ -2201,30 +2197,30 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>1014</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>9</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>1015</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>7</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="31">
         <v>0</v>
       </c>
       <c r="G15" s="15">
@@ -2232,16 +2228,16 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>1016</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2256,16 +2252,16 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>1017</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>7</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2304,30 +2300,30 @@
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="40">
+      <c r="A20" s="38">
         <v>1020</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="38">
         <v>6</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="17">
+      <c r="A21" s="28">
         <v>1021</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="28">
         <v>10</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="29" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="10">
@@ -2336,30 +2332,30 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>1022</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>4</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30">
+      <c r="A23" s="28">
         <v>1023</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="28">
         <v>7</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2412,17 +2408,17 @@
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30">
+      <c r="A28" s="28">
         <v>1028</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="28">
         <v>6</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>70</v>
+      <c r="D28" s="29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2438,16 +2434,16 @@
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="42">
+      <c r="A30" s="40">
         <v>1030</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="40">
         <v>5</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="41" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB024EE-589E-A44D-B40C-36AE93B9CBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F0340-5A9B-4A43-A684-B9A56A55AC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="10620" yWindow="2480" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Alberta</t>
   </si>
@@ -244,9 +244,6 @@
     <t>graupel</t>
   </si>
   <si>
-    <t>sundog</t>
-  </si>
-  <si>
     <t>suestada</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
   </si>
   <si>
     <t>BigHorn</t>
-  </si>
-  <si>
-    <t>mist Maelstrom</t>
   </si>
 </sst>
 </file>
@@ -364,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,12 +385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
@@ -416,12 +404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,11 +439,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -522,28 +504,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1984,7 +1963,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1992,7 +1971,7 @@
     <col min="1" max="1" width="15.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
@@ -2063,16 +2042,16 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="42">
+      <c r="A5" s="17">
         <v>1005</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="17">
         <v>16</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2086,35 +2065,33 @@
       <c r="C6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="36">
+      <c r="A7" s="41">
         <v>1007</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="41">
         <v>8</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="17">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="17">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="28">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="28">
-        <v>16</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2314,16 +2291,16 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28">
+      <c r="A21" s="17">
         <v>1021</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="17">
         <v>10</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="16" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="10">
@@ -2332,17 +2309,17 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="38">
         <v>1022</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="38">
         <v>4</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>68</v>
+      <c r="D22" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2356,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2408,18 +2385,17 @@
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="28">
+      <c r="A28" s="17">
         <v>1028</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <v>6</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="14">
@@ -2434,16 +2410,16 @@
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="40">
+      <c r="A30" s="36">
         <v>1030</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="36">
         <v>5</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="37" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F0340-5A9B-4A43-A684-B9A56A55AC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F808DF-65DF-D94F-A7CB-F6CA3957EE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="2480" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Alberta</t>
   </si>
@@ -238,12 +238,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Bora</t>
-  </si>
-  <si>
-    <t>graupel</t>
-  </si>
-  <si>
     <t>suestada</t>
   </si>
   <si>
@@ -251,13 +245,16 @@
   </si>
   <si>
     <t>BigHorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,14 +346,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -397,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +432,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -492,37 +481,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1516,16 +1497,16 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="32">
+      <c r="A25" s="26">
         <v>1400</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="26">
         <v>9</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="27"/>
       <c r="G25" s="21"/>
       <c r="H25" s="22"/>
       <c r="I25" s="21"/>
@@ -1963,7 +1944,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1994,16 +1975,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="26">
+      <c r="A2" s="30">
         <v>1002</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="30">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="31">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2014,140 +1995,146 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="34">
+      <c r="A3" s="35">
         <v>1003</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="35">
-        <v>0</v>
+      <c r="D3" s="36">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="26">
+      <c r="A4" s="30">
         <v>1004</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="30">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="17">
-        <v>1005</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="30">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="30">
+        <v>11</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="30">
+        <v>1010</v>
+      </c>
+      <c r="B6" s="30">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="30">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="30">
+        <v>7</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="30">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="30">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="26">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="C8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="30">
+        <v>1013</v>
+      </c>
+      <c r="B9" s="30">
+        <v>18</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="35">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="35">
+        <v>9</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="30">
+        <v>1015</v>
+      </c>
+      <c r="B11" s="30">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="41">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="41">
-        <v>8</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="17">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="17">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="26">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="26">
-        <v>11</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="26">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="26">
-        <v>5</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="17">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="C11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="26">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="26">
-        <v>16</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="A12" s="30">
+        <v>1016</v>
+      </c>
+      <c r="B12" s="30">
+        <v>10</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="31">
         <v>0</v>
       </c>
       <c r="O12" s="10">
@@ -2156,16 +2143,16 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="26">
-        <v>1013</v>
-      </c>
-      <c r="B13" s="26">
-        <v>18</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="A13" s="30">
+        <v>1017</v>
+      </c>
+      <c r="B13" s="30">
+        <v>7</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="31">
         <v>0</v>
       </c>
       <c r="O13" s="10">
@@ -2175,46 +2162,47 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="30">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D14" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="26">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="26">
-        <v>7</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>53</v>
+      <c r="A15" s="30">
+        <v>1022</v>
+      </c>
+      <c r="B15" s="30">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="31">
         <v>0</v>
       </c>
+      <c r="E15" s="10"/>
       <c r="G15" s="15">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="26">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="26">
-        <v>10</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="A16" s="30">
+        <v>1006</v>
+      </c>
+      <c r="B16" s="30">
+        <v>7</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="31">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2229,16 +2217,16 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="26">
-        <v>7</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="A17" s="30">
+        <v>1021</v>
+      </c>
+      <c r="B17" s="30">
+        <v>10</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="31">
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2253,55 +2241,62 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
-        <v>1018</v>
-      </c>
-      <c r="B18" s="14">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="A18" s="30">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="30">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1">
-      <c r="A19" s="14">
-        <v>1019</v>
-      </c>
-      <c r="B19" s="14">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="A19" s="30">
+        <v>1028</v>
+      </c>
+      <c r="B19" s="30">
+        <v>6</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38">
-        <v>1020</v>
-      </c>
-      <c r="B20" s="38">
-        <v>6</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="39">
-        <v>0</v>
+      <c r="A20" s="33">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="33">
+        <v>8</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="17">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B21" s="17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H21" s="10">
         <f>24-18</f>
@@ -2309,124 +2304,124 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38">
-        <v>1022</v>
-      </c>
-      <c r="B22" s="38">
-        <v>4</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="39">
-        <v>0</v>
+      <c r="A22" s="28">
+        <v>1030</v>
+      </c>
+      <c r="B22" s="28">
+        <v>5</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28">
+      <c r="A23" s="17">
         <v>1023</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="17">
         <v>7</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>68</v>
+      <c r="D23" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
-        <v>1024</v>
-      </c>
-      <c r="B24" s="14">
-        <v>13</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="13"/>
+      <c r="A24" s="37">
+        <v>1018</v>
+      </c>
+      <c r="B24" s="37">
+        <v>14</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="14">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B25" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="14">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B26" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="14">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17">
-        <v>1028</v>
-      </c>
-      <c r="B28" s="17">
-        <v>6</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="40"/>
+      <c r="A28" s="14">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="14">
+        <v>15</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="14">
+        <v>1027</v>
+      </c>
+      <c r="B29" s="14">
+        <v>11</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="14">
         <v>1029</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B30" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="36">
-        <v>1030</v>
-      </c>
-      <c r="B30" s="36">
-        <v>5</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>11</v>
-      </c>
+      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="A1:A30"/>
+      <sortCondition ref="D1:D30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F808DF-65DF-D94F-A7CB-F6CA3957EE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1423B7D-22DC-D54C-8473-0C8A6E2D6D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="15800" yWindow="1040" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Alberta</t>
   </si>
@@ -247,7 +247,25 @@
     <t>BigHorn</t>
   </si>
   <si>
+    <t>sundog</t>
+  </si>
+  <si>
     <t xml:space="preserve"> z</t>
+  </si>
+  <si>
+    <t>LittleMo</t>
+  </si>
+  <si>
+    <t>UpperY</t>
+  </si>
+  <si>
+    <t>Bighorn</t>
+  </si>
+  <si>
+    <t>Sundog</t>
+  </si>
+  <si>
+    <t>nish-1-8</t>
   </si>
 </sst>
 </file>
@@ -397,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -423,6 +441,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -432,7 +512,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -506,6 +586,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,7 +2033,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2026,113 +2115,112 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="30">
-        <v>1009</v>
-      </c>
-      <c r="B5" s="30">
-        <v>11</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0</v>
+      <c r="A5" s="17">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="17">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="30">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B6" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="30">
-        <v>1011</v>
-      </c>
-      <c r="B7" s="30">
-        <v>7</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0</v>
+      <c r="A7" s="33">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="33">
+        <v>8</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="30">
-        <v>1012</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="A8" s="17">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="17">
         <v>16</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
+      <c r="C8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="30">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B9" s="30">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35">
-        <v>1014</v>
-      </c>
-      <c r="B10" s="35">
-        <v>9</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="A10" s="30">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="30">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="30">
-        <v>1015</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="17">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="30">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="31">
         <v>0</v>
@@ -2144,13 +2232,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="30">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="30">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="31">
         <v>0</v>
@@ -2160,164 +2248,215 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="30">
-        <v>1020</v>
-      </c>
-      <c r="B14" s="30">
-        <v>6</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="31">
+    <row r="14" spans="1:15" ht="20" thickBot="1">
+      <c r="A14" s="35">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="35">
+        <v>9</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
       <c r="A15" s="30">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="30">
+        <v>7</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:15" ht="20" thickBot="1">
+      <c r="A16" s="30">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="30">
+        <v>10</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="43">
+        <v>24</v>
+      </c>
+      <c r="H16" s="43">
+        <f>G16-8</f>
+        <v>16</v>
+      </c>
+      <c r="I16" s="43">
+        <f>H16-16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="30">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="30">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" thickBot="1">
+      <c r="A18" s="37">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="37">
+        <v>14</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="43">
+        <v>24</v>
+      </c>
+      <c r="H18" s="43">
+        <f>G18-14</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="43">
+        <f>H18-1</f>
+        <v>9</v>
+      </c>
+      <c r="J18" s="43">
+        <f>I18-5</f>
+        <v>4</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+    </row>
+    <row r="19" spans="1:12" s="15" customFormat="1">
+      <c r="A19" s="14">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="14">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" thickBot="1">
+      <c r="A20" s="30">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="30">
+        <v>6</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="43">
+        <v>8</v>
+      </c>
+      <c r="H20" s="43">
+        <f>G208</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="30">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="30">
+        <v>10</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="30">
         <v>1022</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B22" s="30">
         <v>4</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="G15" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="30">
-        <v>1006</v>
-      </c>
-      <c r="B16" s="30">
-        <v>7</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="10">
-        <v>24</v>
-      </c>
-      <c r="H16" s="10">
-        <f>24-16-8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="30">
-        <v>1021</v>
-      </c>
-      <c r="B17" s="30">
-        <v>10</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="10">
-        <v>24</v>
-      </c>
-      <c r="H17" s="10">
-        <f>24-16-7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="30">
-        <v>1005</v>
-      </c>
-      <c r="B18" s="30">
-        <v>16</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1">
-      <c r="A19" s="30">
-        <v>1028</v>
-      </c>
-      <c r="B19" s="30">
-        <v>6</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="33">
-        <v>1007</v>
-      </c>
-      <c r="B20" s="33">
-        <v>8</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17">
-        <v>1008</v>
-      </c>
-      <c r="B21" s="17">
-        <v>16</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="10">
-        <f>24-18</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="28">
-        <v>1030</v>
-      </c>
-      <c r="B22" s="28">
-        <v>5</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="17">
         <v>1023</v>
       </c>
@@ -2331,97 +2470,103 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="37">
-        <v>1018</v>
-      </c>
-      <c r="B24" s="37">
+    <row r="24" spans="1:12">
+      <c r="A24" s="14">
+        <v>1024</v>
+      </c>
+      <c r="B24" s="14">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="14">
+        <v>1025</v>
+      </c>
+      <c r="B25" s="14">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14">
+        <v>1026</v>
+      </c>
+      <c r="B26" s="14">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14">
+        <v>1027</v>
+      </c>
+      <c r="B27" s="14">
+        <v>11</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="30">
+        <v>1028</v>
+      </c>
+      <c r="B28" s="30">
+        <v>6</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="14">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="14">
-        <v>1019</v>
-      </c>
-      <c r="B25" s="14">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="14">
-        <v>1024</v>
-      </c>
-      <c r="B26" s="14">
-        <v>13</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="14">
-        <v>1025</v>
-      </c>
-      <c r="B27" s="14">
-        <v>17</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="14">
-        <v>1026</v>
-      </c>
-      <c r="B28" s="14">
-        <v>15</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="14">
-        <v>1027</v>
-      </c>
-      <c r="B29" s="14">
+      <c r="C29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="28">
+        <v>1030</v>
+      </c>
+      <c r="B30" s="28">
+        <v>5</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="14">
-        <v>1029</v>
-      </c>
-      <c r="B30" s="14">
-        <v>14</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="D1:D30"/>
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1423B7D-22DC-D54C-8473-0C8A6E2D6D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F9766-29E7-0249-A416-4CA902814ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="1040" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="15800" yWindow="1040" windowWidth="33600" windowHeight="19600" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Alberta</t>
   </si>
@@ -247,9 +247,6 @@
     <t>BigHorn</t>
   </si>
   <si>
-    <t>sundog</t>
-  </si>
-  <si>
     <t xml:space="preserve"> z</t>
   </si>
   <si>
@@ -265,7 +262,25 @@
     <t>Sundog</t>
   </si>
   <si>
-    <t>nish-1-8</t>
+    <t>nish-9-13</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>Graupel</t>
+  </si>
+  <si>
+    <t>Kansas 1-3</t>
+  </si>
+  <si>
+    <t>sundog Mist</t>
+  </si>
+  <si>
+    <t>Mist Graupel</t>
+  </si>
+  <si>
+    <t>Kansas 4-11</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2032,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2278,10 +2293,10 @@
       <c r="F15" s="39"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>72</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>73</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -2337,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="46" t="s">
         <v>45</v>
@@ -2393,7 +2408,7 @@
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
       <c r="H19" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
@@ -2414,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="43">
         <v>8</v>
       </c>
       <c r="H20" s="43">
-        <f>G208</f>
+        <f>G20-8</f>
         <v>0</v>
       </c>
       <c r="I20" s="43"/>
@@ -2441,8 +2456,19 @@
       <c r="D21" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" thickBot="1">
       <c r="A22" s="30">
         <v>1022</v>
       </c>
@@ -2455,6 +2481,23 @@
       <c r="D22" s="31">
         <v>0</v>
       </c>
+      <c r="F22" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="43">
+        <v>8</v>
+      </c>
+      <c r="H22" s="43">
+        <f>G22-5</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="43">
+        <f>H22-3</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="17">
@@ -2469,20 +2512,43 @@
       <c r="D23" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14">
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" thickBot="1">
+      <c r="A24" s="37">
         <v>1024</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="37">
         <v>13</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="D24" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="43">
+        <v>8</v>
+      </c>
+      <c r="H24" s="43">
+        <f>G24-8</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14">
@@ -2509,16 +2575,18 @@
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14">
+      <c r="A27" s="37">
         <v>1027</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="37">
         <v>11</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="38" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30">
@@ -2534,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F9766-29E7-0249-A416-4CA902814ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10804C68-6AD2-BA46-9B88-39557E25632F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="1040" windowWidth="33600" windowHeight="19600" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="15040" yWindow="620" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Alberta</t>
   </si>
@@ -250,9 +250,6 @@
     <t xml:space="preserve"> z</t>
   </si>
   <si>
-    <t>LittleMo</t>
-  </si>
-  <si>
     <t>UpperY</t>
   </si>
   <si>
@@ -281,6 +278,15 @@
   </si>
   <si>
     <t>Kansas 4-11</t>
+  </si>
+  <si>
+    <t>bora</t>
+  </si>
+  <si>
+    <t>LowerMo</t>
+  </si>
+  <si>
+    <t>NebraskaCD</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +539,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -610,6 +622,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1482,16 +1502,18 @@
       <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="24">
+      <c r="A18" s="48">
         <v>2500</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="48">
         <v>8</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="24">
@@ -1563,16 +1585,18 @@
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="24">
+      <c r="A23" s="48">
         <v>1200</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="48">
         <v>3</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="49" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="22"/>
       <c r="I23" s="21"/>
@@ -2047,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2130,112 +2154,113 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="17">
-        <v>1005</v>
-      </c>
-      <c r="B5" s="17">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
+      <c r="A5" s="30">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="30">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="30">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="33">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="33">
-        <v>8</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>19</v>
+      <c r="A7" s="30">
+        <v>1010</v>
+      </c>
+      <c r="B7" s="30">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="17">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="30">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="30">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>19</v>
+      <c r="C8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="30">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B9" s="30">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="30">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="30">
-        <v>5</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="A10" s="35">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="35">
+        <v>9</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="17">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="30">
+        <v>1015</v>
+      </c>
+      <c r="B11" s="30">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="C11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="30">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B12" s="30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="31">
         <v>0</v>
@@ -2247,13 +2272,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="30">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B13" s="30">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="31">
         <v>0</v>
@@ -2264,39 +2289,40 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
-      <c r="A14" s="35">
-        <v>1014</v>
-      </c>
-      <c r="B14" s="35">
-        <v>9</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="A14" s="30">
+        <v>1020</v>
+      </c>
+      <c r="B14" s="30">
+        <v>6</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
       <c r="A15" s="30">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B15" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="39"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>71</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>72</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -2304,13 +2330,13 @@
     </row>
     <row r="16" spans="1:15" ht="20" thickBot="1">
       <c r="A16" s="30">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B16" s="30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D16" s="31">
         <v>0</v>
@@ -2335,16 +2361,19 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="B17" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D17" s="31">
         <v>0</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="46"/>
@@ -2352,26 +2381,23 @@
         <v>44</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="46" t="s">
         <v>45</v>
       </c>
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="20" thickBot="1">
-      <c r="A18" s="37">
-        <v>1018</v>
-      </c>
-      <c r="B18" s="37">
-        <v>14</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>47</v>
+      <c r="A18" s="30">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="30">
+        <v>7</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>47</v>
@@ -2384,31 +2410,31 @@
         <v>10</v>
       </c>
       <c r="I18" s="43">
-        <f>H18-1</f>
-        <v>9</v>
-      </c>
-      <c r="J18" s="43">
-        <f>I18-5</f>
-        <v>4</v>
-      </c>
+        <f>H18-5</f>
+        <v>5</v>
+      </c>
+      <c r="J18" s="43"/>
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
-      <c r="A19" s="14">
-        <v>1019</v>
-      </c>
-      <c r="B19" s="14">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="A19" s="33">
+        <v>1007</v>
+      </c>
+      <c r="B19" s="33">
+        <v>8</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
       <c r="H19" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
@@ -2416,20 +2442,20 @@
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="20" thickBot="1">
-      <c r="A20" s="30">
-        <v>1020</v>
-      </c>
-      <c r="B20" s="30">
-        <v>6</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="31">
-        <v>0</v>
+      <c r="A20" s="17">
+        <v>1008</v>
+      </c>
+      <c r="B20" s="17">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="43">
         <v>8</v>
@@ -2444,45 +2470,45 @@
       <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="30">
-        <v>1021</v>
-      </c>
-      <c r="B21" s="30">
-        <v>10</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0</v>
+      <c r="A21" s="28">
+        <v>1030</v>
+      </c>
+      <c r="B21" s="28">
+        <v>5</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="46"/>
       <c r="H21" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:12" ht="20" thickBot="1">
-      <c r="A22" s="30">
-        <v>1022</v>
-      </c>
-      <c r="B22" s="30">
-        <v>4</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0</v>
+      <c r="A22" s="17">
+        <v>1005</v>
+      </c>
+      <c r="B22" s="17">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="43">
         <v>8</v>
@@ -2500,22 +2526,22 @@
       <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="17">
-        <v>1023</v>
-      </c>
-      <c r="B23" s="17">
-        <v>7</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>66</v>
+      <c r="A23" s="50">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="50">
+        <v>14</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
       <c r="H23" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
@@ -2524,19 +2550,19 @@
     </row>
     <row r="24" spans="1:12" ht="20" thickBot="1">
       <c r="A24" s="37">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B24" s="37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="43">
         <v>8</v>
@@ -2551,90 +2577,132 @@
       <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14">
+      <c r="A25" s="17">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="17">
+        <v>7</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" thickBot="1">
+      <c r="A26" s="37">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="37">
+        <v>13</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="43">
+        <v>8</v>
+      </c>
+      <c r="H26" s="43">
+        <f>G26-5</f>
+        <v>3</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14">
+        <v>1019</v>
+      </c>
+      <c r="B27" s="14">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" ht="20" thickBot="1">
+      <c r="A28" s="14">
         <v>1025</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B28" s="14">
         <v>17</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14">
-        <v>1026</v>
-      </c>
-      <c r="B26" s="14">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="37">
-        <v>1027</v>
-      </c>
-      <c r="B27" s="37">
-        <v>11</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="30">
-        <v>1028</v>
-      </c>
-      <c r="B28" s="30">
-        <v>6</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="31">
-        <v>0</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="D28" s="13"/>
+      <c r="F28" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="43">
+        <v>8</v>
+      </c>
+      <c r="H28" s="43">
+        <f>G28-8</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14">
+        <v>1026</v>
+      </c>
+      <c r="B29" s="14">
+        <v>15</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="14">
         <v>1029</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B30" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="28">
-        <v>1030</v>
-      </c>
-      <c r="B30" s="28">
-        <v>5</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="A1:A30"/>
+      <sortCondition ref="D1:D30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10804C68-6AD2-BA46-9B88-39557E25632F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593A16F-04AD-F04D-96CE-40D2C3867A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="620" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="15040" yWindow="620" windowWidth="33600" windowHeight="19600" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>Alberta</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>NebraskaCD</t>
+  </si>
+  <si>
+    <t>maelstrom</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1537,7 +1540,9 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
       <c r="I20" s="21"/>
@@ -2071,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2383,6 +2388,9 @@
       <c r="I17" s="46" t="s">
         <v>45</v>
       </c>
+      <c r="J17" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
@@ -2413,7 +2421,10 @@
         <f>H18-5</f>
         <v>5</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="43">
+        <f>HUC_Status!I18-1</f>
+        <v>4</v>
+      </c>
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
     </row>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593A16F-04AD-F04D-96CE-40D2C3867A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9CB54-DAA5-9C43-9DE8-00FAC0704AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="620" windowWidth="33600" windowHeight="19600" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="15040" yWindow="620" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Alberta</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>maelstrom</t>
+  </si>
+  <si>
+    <t>Miss Little Suoux</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1519,16 +1522,18 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="24">
+      <c r="A19" s="48">
         <v>2900</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="48">
         <v>2</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="49" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -2076,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2389,9 +2394,11 @@
         <v>45</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="46"/>
       <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="20" thickBot="1">
@@ -2422,10 +2429,13 @@
         <v>5</v>
       </c>
       <c r="J18" s="43">
-        <f>HUC_Status!I18-1</f>
-        <v>4</v>
-      </c>
-      <c r="K18" s="43"/>
+        <f>HUC_Status!I18-2</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="43">
+        <f>J18-1</f>
+        <v>2</v>
+      </c>
       <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
@@ -2605,7 +2615,9 @@
       <c r="H25" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="41"/>
@@ -2633,7 +2645,10 @@
         <f>G26-5</f>
         <v>3</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="43">
+        <f>H26-3</f>
+        <v>0</v>
+      </c>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="44"/>
@@ -2697,8 +2712,17 @@
         <v>36</v>
       </c>
       <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="1:12" ht="20" thickBot="1">
       <c r="A30" s="14">
         <v>1029</v>
       </c>
@@ -2709,6 +2733,20 @@
         <v>34</v>
       </c>
       <c r="D30" s="13"/>
+      <c r="F30" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="43">
+        <v>8</v>
+      </c>
+      <c r="H30" s="43">
+        <f>G30-7</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9CB54-DAA5-9C43-9DE8-00FAC0704AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C362679-C482-9646-8D3E-01AD4F3E6989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="620" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="7920" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>Alberta</t>
   </si>
@@ -248,12 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve"> z</t>
-  </si>
-  <si>
-    <t>UpperY</t>
-  </si>
-  <si>
-    <t>Bighorn</t>
   </si>
   <si>
     <t>Sundog</t>
@@ -443,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +539,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -607,10 +601,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -628,12 +618,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1238,7 +1228,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1517,9 +1507,7 @@
       <c r="C18" s="48">
         <v>8</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="48">
@@ -1532,21 +1520,21 @@
         <v>2</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5">
+      <c r="A20" s="48">
         <v>100</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="48">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>83</v>
+      <c r="D20" s="49" t="s">
+        <v>81</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
@@ -1707,6 +1695,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
+      <c r="E29" s="2">
+        <f>D18</f>
+        <v>0</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
@@ -2081,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2133,16 +2125,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="35">
+      <c r="A3" s="33">
         <v>1003</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -2234,16 +2226,16 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35">
+      <c r="A10" s="33">
         <v>1014</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="33">
         <v>9</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2257,7 +2249,7 @@
       <c r="C11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
@@ -2326,17 +2318,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:15" ht="20" thickBot="1">
       <c r="A16" s="30">
@@ -2351,23 +2341,20 @@
       <c r="D16" s="31">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="41">
         <v>24</v>
       </c>
-      <c r="H16" s="43">
-        <f>G16-8</f>
-        <v>16</v>
-      </c>
-      <c r="I16" s="43">
-        <f>H16-16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="H16" s="41">
+        <f>G16-18</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30">
@@ -2385,21 +2372,21 @@
       <c r="E17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="44" t="s">
         <v>45</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="47"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="20" thickBot="1">
       <c r="A18" s="30">
@@ -2414,29 +2401,29 @@
       <c r="D18" s="31">
         <v>0</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="41">
         <v>24</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="41">
         <f>G18-14</f>
         <v>10</v>
       </c>
-      <c r="I18" s="43">
-        <f>H18-5</f>
-        <v>5</v>
-      </c>
-      <c r="J18" s="43">
+      <c r="I18" s="41">
+        <f>H18-6</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="41">
         <f>HUC_Status!I18-2</f>
-        <v>3</v>
-      </c>
-      <c r="K18" s="43">
+        <v>2</v>
+      </c>
+      <c r="K18" s="41">
         <f>J18-1</f>
-        <v>2</v>
-      </c>
-      <c r="L18" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
       <c r="A19" s="33">
@@ -2448,47 +2435,47 @@
       <c r="C19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>19</v>
+      <c r="D19" s="34">
+        <v>0</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" ht="20" thickBot="1">
-      <c r="A20" s="17">
+      <c r="A20" s="30">
         <v>1008</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="30">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="43">
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="41">
         <v>8</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="41">
         <f>G20-8</f>
         <v>0</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="28">
@@ -2500,102 +2487,100 @@
       <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="41"/>
+      <c r="D21" s="29"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" ht="20" thickBot="1">
-      <c r="A22" s="17">
+      <c r="A22" s="35">
         <v>1005</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="35">
         <v>16</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="43">
+      <c r="F22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="41">
         <v>8</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="41">
         <f>G22-5</f>
         <v>3</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="41">
         <f>H22-3</f>
         <v>0</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="50">
+      <c r="A23" s="46">
         <v>1018</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="46">
         <v>14</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" ht="20" thickBot="1">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>1027</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="35">
         <v>11</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="43">
+      <c r="D24" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="41">
         <v>8</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="41">
         <f>G24-8</f>
         <v>0</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="17">
@@ -2610,48 +2595,48 @@
       <c r="D25" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="40" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" ht="20" thickBot="1">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>1024</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="35">
         <v>13</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="42" t="s">
+      <c r="D26" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="41">
         <v>8</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="41">
         <f>G26-5</f>
         <v>3</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="41">
         <f>H26-3</f>
         <v>0</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14">
@@ -2663,17 +2648,19 @@
       <c r="C27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="1:12" ht="20" thickBot="1">
       <c r="A28" s="14">
@@ -2686,20 +2673,20 @@
         <v>37</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="F28" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="43">
+      <c r="F28" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="41">
         <v>8</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="41">
         <f>G28-8</f>
         <v>0</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14">
@@ -2712,15 +2699,15 @@
         <v>36</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="1:12" ht="20" thickBot="1">
       <c r="A30" s="14">
@@ -2733,20 +2720,20 @@
         <v>34</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="41">
         <v>8</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="41">
         <f>G30-7</f>
         <v>1</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C362679-C482-9646-8D3E-01AD4F3E6989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD8A507-FA52-FA45-BC7C-072C855A131C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7920" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -2074,7 +2074,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD8A507-FA52-FA45-BC7C-072C855A131C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE4AED-B34E-2C4E-B31E-99D380CA8FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="8300" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -2074,7 +2074,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE4AED-B34E-2C4E-B31E-99D380CA8FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC6B48-DB4A-9D45-AA85-9A862AC98CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="14900" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
     <sheet name="HUC_Status" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CD Status'!$A$1:$M$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Alberta</t>
   </si>
@@ -431,13 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +540,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -592,10 +593,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,10 +600,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
@@ -618,12 +611,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -652,7 +649,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6667500" cy="2882900"/>
@@ -1228,7 +1225,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1258,18 +1255,16 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7">
-        <v>500</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
+      <c r="A2" s="5">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="G2" s="21"/>
       <c r="H2" s="22"/>
       <c r="I2" s="21"/>
@@ -1279,28 +1274,33 @@
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
+      <c r="A3" s="5">
+        <v>300</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -1315,331 +1315,326 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="24">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="7">
-        <v>3400</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
+      <c r="D6" s="25"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7">
-        <v>3900</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="42">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42">
+        <v>3</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="24">
+        <v>1300</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="24">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7">
-        <v>4000</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
+      <c r="D8" s="25"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7">
-        <v>4200</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
+      <c r="A9" s="26">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26">
+        <v>9</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="46">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="46">
+        <v>2100</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="46">
+        <v>9</v>
+      </c>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="46">
+        <v>2200</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="46">
+        <v>2300</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="46">
+        <v>6</v>
+      </c>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="46">
+        <v>2400</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="46">
+        <v>6</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="42">
+        <v>2500</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="42">
+        <v>8</v>
+      </c>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5">
+        <v>2900</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7">
+        <v>3200</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7">
+        <v>3400</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7">
+        <v>3900</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7">
+        <v>4200</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7">
         <v>4700</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C23" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7">
         <v>4800</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C24" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5">
         <v>40000</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C25" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="24">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="24">
-        <v>2100</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="24">
-        <v>9</v>
-      </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="24">
-        <v>2200</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="24">
-        <v>2300</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="24">
-        <v>6</v>
-      </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="24">
-        <v>2400</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="24">
-        <v>6</v>
-      </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="48">
-        <v>2500</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="48">
-        <v>8</v>
-      </c>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="48">
-        <v>2900</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="48">
-        <v>2</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="48">
-        <v>100</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="48">
-        <v>1</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5">
-        <v>300</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="24">
-        <v>1100</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="24">
-        <v>9</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="48">
-        <v>1200</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="48">
-        <v>3</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="24">
-        <v>1300</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="24">
-        <v>9</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="26">
-        <v>1400</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="26">
-        <v>9</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="24">
@@ -2060,8 +2055,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M28">
-      <sortCondition ref="D1:D28"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
+      <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2105,16 +2100,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1002</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>8</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="29">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2125,16 +2120,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>1003</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -2142,129 +2137,129 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>1004</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>1006</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1009</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>1010</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>1012</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="28">
         <v>16</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>1013</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="28">
         <v>18</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>1014</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>9</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>1015</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>1016</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="28">
         <v>10</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
       <c r="O12" s="10">
@@ -2273,16 +2268,16 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>1017</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="28">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
       <c r="O13" s="10">
@@ -2291,296 +2286,298 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>1020</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="28">
         <v>6</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="30">
+      <c r="A15" s="28">
         <v>1021</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <v>10</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:15" ht="20" thickBot="1">
-      <c r="A16" s="30">
+      <c r="A16" s="28">
         <v>1022</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="28">
         <v>4</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="37">
         <v>24</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="37">
         <f>G16-18</f>
         <v>6</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30">
+      <c r="A17" s="28">
         <v>1028</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>6</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="40" t="s">
         <v>45</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="20" thickBot="1">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>1011</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="28">
         <v>7</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40" t="s">
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="37">
         <v>24</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="37">
         <f>G18-14</f>
         <v>10</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="37">
         <f>H18-6</f>
         <v>4</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="37">
         <f>HUC_Status!I18-2</f>
         <v>2</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="37">
         <f>J18-1</f>
         <v>1</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>1007</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>8</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="38" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="20" thickBot="1">
-      <c r="A20" s="30">
+      <c r="A20" s="28">
         <v>1008</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <v>16</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="31">
-        <v>0</v>
-      </c>
-      <c r="F20" s="40" t="s">
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="37">
         <v>8</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="37">
         <f>G20-8</f>
         <v>0</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="28">
+      <c r="A21" s="31">
         <v>1030</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="31">
         <v>5</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="38" t="s">
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" ht="20" thickBot="1">
-      <c r="A22" s="35">
+      <c r="A22" s="44">
         <v>1005</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="44">
         <v>16</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="37">
         <v>8</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="37">
         <f>G22-5</f>
         <v>3</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="37">
         <f>H22-3</f>
         <v>0</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="46">
+      <c r="A23" s="17">
         <v>1018</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="17">
         <v>14</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="38" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="20" thickBot="1">
-      <c r="A24" s="35">
+      <c r="A24" s="17">
         <v>1027</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="17">
         <v>11</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="37">
         <v>8</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="37">
         <f>G24-8</f>
         <v>0</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="17">
@@ -2595,72 +2592,72 @@
       <c r="D25" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="38" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" ht="20" thickBot="1">
-      <c r="A26" s="35">
+      <c r="A26" s="17">
         <v>1024</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="17">
         <v>13</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="37">
         <v>8</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="37">
         <f>G26-5</f>
         <v>3</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="37">
         <f>H26-3</f>
         <v>0</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14">
+      <c r="A27" s="44">
         <v>1019</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="44">
         <v>18</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="38" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12" ht="20" thickBot="1">
       <c r="A28" s="14">
@@ -2673,20 +2670,20 @@
         <v>37</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="37">
         <v>8</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="37">
         <f>G28-8</f>
         <v>0</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14">
@@ -2699,15 +2696,15 @@
         <v>36</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="38" t="s">
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" ht="20" thickBot="1">
       <c r="A30" s="14">
@@ -2720,20 +2717,20 @@
         <v>34</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="37">
         <v>8</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="37">
         <f>G30-7</f>
         <v>1</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
@@ -2744,4 +2741,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2779AD6-5756-C749-86AF-8F4D901DEBD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC6B48-DB4A-9D45-AA85-9A862AC98CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F2DBD-AA0C-DD45-8486-631FA7C278FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="1" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
+    <workbookView xWindow="1300" yWindow="1340" windowWidth="22460" windowHeight="17320" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="CD Status" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Alberta</t>
   </si>
@@ -254,40 +254,40 @@
     <t>Sundog</t>
   </si>
   <si>
-    <t>nish-9-13</t>
-  </si>
-  <si>
     <t>Mist</t>
   </si>
   <si>
     <t>Graupel</t>
   </si>
   <si>
-    <t>Kansas 1-3</t>
-  </si>
-  <si>
-    <t>sundog Mist</t>
-  </si>
-  <si>
-    <t>Mist Graupel</t>
-  </si>
-  <si>
-    <t>Kansas 4-11</t>
-  </si>
-  <si>
     <t>bora</t>
   </si>
   <si>
-    <t>LowerMo</t>
-  </si>
-  <si>
-    <t>NebraskaCD</t>
-  </si>
-  <si>
-    <t>maelstrom</t>
-  </si>
-  <si>
-    <t>Miss Little Suoux</t>
+    <t>sundog</t>
+  </si>
+  <si>
+    <t>alabama</t>
+  </si>
+  <si>
+    <t>indiANA</t>
+  </si>
+  <si>
+    <t>qrk</t>
+  </si>
+  <si>
+    <t>Mississipi</t>
+  </si>
+  <si>
+    <t>suestafdsa</t>
+  </si>
+  <si>
+    <t>suestada   bora</t>
+  </si>
+  <si>
+    <t>mist</t>
+  </si>
+  <si>
+    <t>mist graupel maelstrom</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,12 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,10 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -615,12 +605,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -649,7 +643,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6667500" cy="2882900"/>
@@ -1224,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EA337-0194-1549-96B3-842E71A29D75}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1255,373 +1249,389 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="7">
+        <v>500</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5">
-        <v>300</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="A3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24">
-        <v>1100</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="7">
+        <v>3200</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7">
+        <v>3400</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
         <v>7</v>
       </c>
-      <c r="C6" s="24">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>3900</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="42">
-        <v>1200</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="42">
-        <v>3</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="24">
-        <v>1300</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="24">
-        <v>9</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="26">
-        <v>1400</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="26">
-        <v>9</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="A9" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7">
+        <v>4700</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>4800</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="40">
+        <v>1200</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="40">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="42">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="42">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="46">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="D14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="42">
+        <v>2200</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="42">
         <v>1</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="46">
-        <v>2100</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="46">
-        <v>9</v>
-      </c>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="46">
-        <v>2200</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="D15" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="47"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="46">
-        <v>2300</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="46">
-        <v>6</v>
-      </c>
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="46">
-        <v>2400</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="46">
-        <v>6</v>
-      </c>
-      <c r="D15" s="47"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="42">
-        <v>2500</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="42">
-        <v>8</v>
-      </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="22">
+        <v>1100</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="22">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="22">
+        <v>1300</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22">
+        <v>9</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="24">
+        <v>1400</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24">
+        <v>9</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="42">
+        <v>2100</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="42">
+        <v>9</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="42">
+        <v>2300</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="42">
+        <v>6</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="7">
-        <v>3200</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="7">
-        <v>3400</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="7">
-        <v>3900</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="7">
-        <v>4000</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="7">
-        <v>4200</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="7">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-    </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="7">
-        <v>4700</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
+      <c r="A23" s="42">
+        <v>2400</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="42">
+        <v>6</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="7">
-        <v>4800</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
+      <c r="A24" s="40">
+        <v>2500</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="40">
+        <v>8</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1637,54 +1647,54 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <v>50000</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>18</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <v>60000</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>14</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="D27" s="23"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="24">
+      <c r="A28" s="22">
         <v>70000</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="24">
+      <c r="B28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
         <v>7</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="D28" s="23"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="3"/>
@@ -1694,369 +1704,369 @@
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
-      <sortCondition ref="A1:A29"/>
+      <sortCondition ref="D1:D29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2068,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7117F-F167-164D-9162-D99D52066453}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2083,16 +2093,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -2100,16 +2110,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <v>1002</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2120,16 +2130,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>1003</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>10</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -2137,129 +2147,129 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>1004</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>1006</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>7</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>1009</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>11</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>1010</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>1012</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>16</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>1013</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>18</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>1014</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>9</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>1015</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>0</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>1016</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>0</v>
       </c>
       <c r="O12" s="10">
@@ -2268,16 +2278,16 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>1017</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>7</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>0</v>
       </c>
       <c r="O13" s="10">
@@ -2286,354 +2296,333 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>1020</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>6</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>1021</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32">
+        <v>1019</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:15" ht="20" thickBot="1">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>1022</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>4</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="29">
-        <v>0</v>
-      </c>
-      <c r="F16" s="36" t="s">
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <v>24</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <f>G16-18</f>
         <v>6</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>1028</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>6</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="29">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38">
+        <v>1025</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" thickBot="1">
+      <c r="A18" s="26">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="26">
+        <v>7</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="35">
+        <v>24</v>
+      </c>
+      <c r="H18" s="35">
+        <f>G18-17</f>
+        <v>7</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" s="15" customFormat="1">
+      <c r="A19" s="29">
+        <v>1007</v>
+      </c>
+      <c r="B19" s="29">
+        <v>8</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" thickBot="1">
+      <c r="A20" s="26">
+        <v>1008</v>
+      </c>
+      <c r="B20" s="26">
+        <v>16</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="35">
+        <v>8</v>
+      </c>
+      <c r="H20" s="35">
+        <f>G20-1</f>
+        <v>7</v>
+      </c>
+      <c r="I20" s="35">
+        <f>H20-6</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29">
+        <v>1030</v>
+      </c>
+      <c r="B21" s="29">
+        <v>5</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" thickBot="1">
+      <c r="A22" s="26">
+        <v>1005</v>
+      </c>
+      <c r="B22" s="26">
+        <v>16</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="35">
+        <v>8</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="26">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="26">
+        <v>14</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="1:12" ht="20" thickBot="1">
-      <c r="A18" s="28">
-        <v>1011</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" thickBot="1">
+      <c r="A24" s="26">
+        <v>1027</v>
+      </c>
+      <c r="B24" s="26">
+        <v>11</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="35">
+        <v>8</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="26">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="26">
         <v>7</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="37">
-        <v>24</v>
-      </c>
-      <c r="H18" s="37">
-        <f>G18-14</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="37">
-        <f>H18-6</f>
+      <c r="C25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" thickBot="1">
+      <c r="A26" s="26">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="26">
+        <v>13</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="35">
+        <v>8</v>
+      </c>
+      <c r="H26" s="35">
+        <f>G26-3</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="35">
+        <f>H26-1</f>
         <v>4</v>
       </c>
-      <c r="J18" s="37">
-        <f>HUC_Status!I18-2</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="37">
-        <f>J18-1</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1">
-      <c r="A19" s="31">
-        <v>1007</v>
-      </c>
-      <c r="B19" s="31">
-        <v>8</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="1:12" ht="20" thickBot="1">
-      <c r="A20" s="28">
-        <v>1008</v>
-      </c>
-      <c r="B20" s="28">
-        <v>16</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="37">
-        <v>8</v>
-      </c>
-      <c r="H20" s="37">
-        <f>G20-8</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="31">
-        <v>1030</v>
-      </c>
-      <c r="B21" s="31">
-        <v>5</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="1:12" ht="20" thickBot="1">
-      <c r="A22" s="44">
-        <v>1005</v>
-      </c>
-      <c r="B22" s="44">
-        <v>16</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="37">
-        <v>8</v>
-      </c>
-      <c r="H22" s="37">
-        <f>G22-5</f>
+      <c r="J26" s="35">
+        <f>I26-1</f>
         <v>3</v>
       </c>
-      <c r="I22" s="37">
-        <f>H22-3</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="17">
-        <v>1018</v>
-      </c>
-      <c r="B23" s="17">
-        <v>14</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="1:12" ht="20" thickBot="1">
-      <c r="A24" s="17">
-        <v>1027</v>
-      </c>
-      <c r="B24" s="17">
-        <v>11</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="37">
-        <v>8</v>
-      </c>
-      <c r="H24" s="37">
-        <f>G24-8</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="17">
-        <v>1023</v>
-      </c>
-      <c r="B25" s="17">
-        <v>7</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="1:12" ht="20" thickBot="1">
-      <c r="A26" s="17">
-        <v>1024</v>
-      </c>
-      <c r="B26" s="17">
-        <v>13</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="37">
-        <v>8</v>
-      </c>
-      <c r="H26" s="37">
-        <f>G26-5</f>
-        <v>3</v>
-      </c>
-      <c r="I26" s="37">
-        <f>H26-3</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="44">
@@ -2649,41 +2638,43 @@
         <v>19</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="20" thickBot="1">
-      <c r="A28" s="14">
+      <c r="A28" s="46">
         <v>1025</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="46">
         <v>17</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="F28" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="37">
+      <c r="D28" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="35">
         <v>8</v>
       </c>
-      <c r="H28" s="37">
-        <f>G28-8</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
+      <c r="H28" s="35">
+        <f>G28-7</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14">
@@ -2696,15 +2687,17 @@
         <v>36</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="20" thickBot="1">
       <c r="A30" s="14">
@@ -2717,20 +2710,23 @@
         <v>34</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="35">
         <v>8</v>
       </c>
-      <c r="H30" s="37">
-        <f>G30-7</f>
+      <c r="H30" s="35">
+        <f>G30-1</f>
+        <v>7</v>
+      </c>
+      <c r="I30" s="35">
+        <f>H30-6</f>
         <v>1</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/Build_Status.xlsx
+++ b/Build_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F2DBD-AA0C-DD45-8486-631FA7C278FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1BF55-E1C8-3E4B-82C2-D7E2E3C534BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="1340" windowWidth="22460" windowHeight="17320" xr2:uid="{FFB251FF-B283-874E-B523-E9C965B2BDF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>Alberta</t>
   </si>
@@ -263,38 +263,44 @@
     <t>bora</t>
   </si>
   <si>
-    <t>sundog</t>
-  </si>
-  <si>
-    <t>alabama</t>
-  </si>
-  <si>
-    <t>indiANA</t>
-  </si>
-  <si>
-    <t>qrk</t>
-  </si>
-  <si>
-    <t>Mississipi</t>
-  </si>
-  <si>
-    <t>suestafdsa</t>
-  </si>
-  <si>
-    <t>suestada   bora</t>
-  </si>
-  <si>
-    <t>mist</t>
-  </si>
-  <si>
-    <t>mist graupel maelstrom</t>
+    <t>needs hist 07-10</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>sundog suestada</t>
+  </si>
+  <si>
+    <t>kasnsas</t>
+  </si>
+  <si>
+    <t>kansas</t>
+  </si>
+  <si>
+    <t>1300 - 5</t>
+  </si>
+  <si>
+    <t>1300-6-9</t>
+  </si>
+  <si>
+    <t>suestada mist</t>
+  </si>
+  <si>
+    <t>1100 - 1-3</t>
+  </si>
+  <si>
+    <t>1100 - 4 9</t>
+  </si>
+  <si>
+    <t>mist graupel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,8 +392,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,26 +422,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -432,7 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,11 +538,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -545,10 +553,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -558,10 +562,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -579,17 +579,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
@@ -601,22 +597,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +644,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6667500" cy="2882900"/>
@@ -1219,7 +1220,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1232,16 +1233,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1249,389 +1250,395 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7">
+      <c r="A2" s="36">
+        <v>100</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="36">
+        <v>300</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="36">
+        <v>6</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="36">
         <v>500</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C4" s="36">
         <v>5</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7">
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="36">
         <v>1000</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C5" s="36">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="7">
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="42">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="42">
+        <v>9</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="36">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="42">
+        <v>1300</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="42">
+        <v>9</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="42">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="42">
+        <v>9</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="36">
         <v>1500</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C10" s="36">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="7">
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="36">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="36">
+        <v>2100</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="36">
+        <v>9</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="36">
+        <v>2200</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="36">
+        <v>2300</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="36">
+        <v>6</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="36">
+        <v>2400</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="36">
+        <v>6</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="36">
+        <v>2500</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="36">
+        <v>8</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="36">
         <v>2900</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B17" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C17" s="36">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="7">
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="36">
         <v>3200</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C18" s="36">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7">
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="36">
         <v>3400</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C19" s="36">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="36">
         <v>3900</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C20" s="36">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="36">
         <v>4000</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C21" s="36">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7">
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="36">
         <v>4200</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C22" s="36">
         <v>7</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7">
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="36">
         <v>4700</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C23" s="36">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7">
+      <c r="D23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="36">
         <v>4800</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C24" s="36">
         <v>10</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="40">
-        <v>1200</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="40">
-        <v>3</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="42">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="42">
-        <v>1</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="42">
-        <v>2200</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="5">
-        <v>100</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5">
-        <v>300</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="22">
-        <v>1100</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="22">
-        <v>9</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="22">
-        <v>1300</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="22">
-        <v>9</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="24">
-        <v>1400</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="24">
-        <v>9</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="42">
-        <v>2100</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="42">
-        <v>9</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="42">
-        <v>2300</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="42">
-        <v>6</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="42">
-        <v>2400</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="42">
-        <v>6</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="40">
-        <v>2500</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="40">
-        <v>8</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>80</v>
+      <c r="D24" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1647,54 +1654,54 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="22">
+      <c r="A26" s="18">
         <v>50000</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="18">
         <v>18</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="22">
+      <c r="A27" s="18">
         <v>60000</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="18">
         <v>14</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="22">
+      <c r="A28" s="18">
         <v>70000</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="22">
+      <c r="B28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18">
         <v>7</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="3"/>
@@ -1704,369 +1711,369 @@
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="7:13">
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="7:13">
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="7:13">
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="7:13">
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="7:13">
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="7:13">
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="7:13">
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
     </row>
     <row r="43" spans="7:13">
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
     </row>
     <row r="44" spans="7:13">
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="7:13">
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
     </row>
     <row r="46" spans="7:13">
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="7:13">
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
     </row>
     <row r="48" spans="7:13">
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
     </row>
     <row r="50" spans="7:13">
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
     </row>
     <row r="51" spans="7:13">
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="52" spans="7:13">
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
     </row>
     <row r="53" spans="7:13">
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
     </row>
     <row r="54" spans="7:13">
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="7:13">
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
     </row>
     <row r="58" spans="7:13">
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
     </row>
     <row r="59" spans="7:13">
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
     </row>
     <row r="60" spans="7:13">
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
     </row>
     <row r="61" spans="7:13">
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="62" spans="7:13">
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
     </row>
     <row r="64" spans="7:13">
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
     </row>
     <row r="65" spans="7:13">
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
     </row>
     <row r="66" spans="7:13">
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
     </row>
     <row r="67" spans="7:13">
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
     </row>
     <row r="68" spans="7:13">
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{1080914A-907F-7B4C-8207-1C600B07CD6A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
-      <sortCondition ref="D1:D29"/>
+      <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,654 +2086,655 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="15.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="26">
+      <c r="A2" s="20">
         <v>1002</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="20">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="29">
+      <c r="A3" s="23">
         <v>1003</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="26">
+      <c r="A4" s="20">
         <v>1004</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="20">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="26">
+      <c r="A5" s="20">
         <v>1006</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="20">
         <v>7</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="26">
+      <c r="A6" s="20">
         <v>1009</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="20">
         <v>11</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="26">
+      <c r="A7" s="20">
         <v>1010</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="26">
+      <c r="A8" s="20">
         <v>1012</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="20">
         <v>16</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="26">
+      <c r="A9" s="20">
         <v>1013</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>18</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="29">
+      <c r="A10" s="23">
         <v>1014</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="23">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26">
+      <c r="A11" s="20">
         <v>1015</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="26">
+      <c r="A12" s="20">
         <v>1016</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="20">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
         <f>24-15-4</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="26">
+      <c r="A13" s="20">
         <v>1017</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="27">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
         <f>24-7-1</f>
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
-      <c r="A14" s="26">
+      <c r="A14" s="20">
         <v>1020</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="15" customFormat="1">
-      <c r="A15" s="26">
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="11" customFormat="1">
+      <c r="A15" s="34">
         <v>1021</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="34">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32">
+      <c r="D15" s="35"/>
+      <c r="E15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26">
+        <v>1026</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" ht="20" thickBot="1">
+      <c r="A16" s="20">
+        <v>1022</v>
+      </c>
+      <c r="B16" s="20">
+        <v>4</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="29">
+        <v>24</v>
+      </c>
+      <c r="H16" s="29">
+        <f>G16-15</f>
+        <v>9</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="20">
+        <v>1028</v>
+      </c>
+      <c r="B17" s="20">
+        <v>6</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32">
+        <v>1029</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" thickBot="1">
+      <c r="A18" s="20">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="20">
+        <v>7</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="29">
+        <v>24</v>
+      </c>
+      <c r="H18" s="29">
+        <f>G18-14</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1">
+      <c r="A19" s="23">
+        <v>1007</v>
+      </c>
+      <c r="B19" s="23">
+        <v>8</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" thickBot="1">
+      <c r="A20" s="20">
+        <v>1008</v>
+      </c>
+      <c r="B20" s="20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="29">
+        <v>8</v>
+      </c>
+      <c r="H20" s="29">
+        <f>G20-7</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="23">
+        <v>1030</v>
+      </c>
+      <c r="B21" s="23">
+        <v>5</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" thickBot="1">
+      <c r="A22" s="20">
+        <v>1005</v>
+      </c>
+      <c r="B22" s="20">
+        <v>16</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="29">
+        <v>8</v>
+      </c>
+      <c r="H22" s="29">
+        <f>G22-4</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="29">
+        <f>H22-3</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="20">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="20">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="44">
+        <v>1306</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" thickBot="1">
+      <c r="A24" s="23">
+        <v>1027</v>
+      </c>
+      <c r="B24" s="23">
+        <v>11</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="29">
+        <v>8</v>
+      </c>
+      <c r="H24" s="29">
+        <f>G24-6</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="29">
+        <v>1</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="23">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="23">
+        <v>7</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" thickBot="1">
+      <c r="A26" s="23">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="23">
+        <v>13</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="29">
+        <v>8</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="23">
         <v>1019</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="20" thickBot="1">
-      <c r="A16" s="26">
-        <v>1022</v>
-      </c>
-      <c r="B16" s="26">
-        <v>4</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="B27" s="23">
+        <v>18</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="20" thickBot="1">
+      <c r="A28" s="23">
+        <v>1025</v>
+      </c>
+      <c r="B28" s="23">
+        <v>17</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="29">
+        <v>8</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="38">
+        <v>1026</v>
+      </c>
+      <c r="B29" s="38">
+        <v>15</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="35">
-        <v>24</v>
-      </c>
-      <c r="H16" s="35">
-        <f>G16-18</f>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" ht="20" thickBot="1">
+      <c r="A30" s="40">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="40">
+        <v>14</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="29">
+        <v>8</v>
+      </c>
+      <c r="H30" s="29">
+        <f>G30-2</f>
         <v>6</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="26">
-        <v>1028</v>
-      </c>
-      <c r="B17" s="26">
-        <v>6</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38">
-        <v>1025</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" ht="20" thickBot="1">
-      <c r="A18" s="26">
-        <v>1011</v>
-      </c>
-      <c r="B18" s="26">
-        <v>7</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="35">
-        <v>24</v>
-      </c>
-      <c r="H18" s="35">
-        <f>G18-17</f>
-        <v>7</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1">
-      <c r="A19" s="29">
-        <v>1007</v>
-      </c>
-      <c r="B19" s="29">
-        <v>8</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" ht="20" thickBot="1">
-      <c r="A20" s="26">
-        <v>1008</v>
-      </c>
-      <c r="B20" s="26">
-        <v>16</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="35">
-        <v>8</v>
-      </c>
-      <c r="H20" s="35">
-        <f>G20-1</f>
-        <v>7</v>
-      </c>
-      <c r="I20" s="35">
-        <f>H20-6</f>
+      <c r="I30" s="29">
+        <f>H30-5</f>
         <v>1</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="29">
-        <v>1030</v>
-      </c>
-      <c r="B21" s="29">
-        <v>5</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" ht="20" thickBot="1">
-      <c r="A22" s="26">
-        <v>1005</v>
-      </c>
-      <c r="B22" s="26">
-        <v>16</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="35">
-        <v>8</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="26">
-        <v>1018</v>
-      </c>
-      <c r="B23" s="26">
-        <v>14</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="1:12" ht="20" thickBot="1">
-      <c r="A24" s="26">
-        <v>1027</v>
-      </c>
-      <c r="B24" s="26">
-        <v>11</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="35">
-        <v>8</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="26">
-        <v>1023</v>
-      </c>
-      <c r="B25" s="26">
-        <v>7</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" ht="20" thickBot="1">
-      <c r="A26" s="26">
-        <v>1024</v>
-      </c>
-      <c r="B26" s="26">
-        <v>13</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="35">
-        <v>8</v>
-      </c>
-      <c r="H26" s="35">
-        <f>G26-3</f>
-        <v>5</v>
-      </c>
-      <c r="I26" s="35">
-        <f>H26-1</f>
-        <v>4</v>
-      </c>
-      <c r="J26" s="35">
-        <f>I26-1</f>
-        <v>3</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="44">
-        <v>1019</v>
-      </c>
-      <c r="B27" s="44">
-        <v>18</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="1:12" ht="20" thickBot="1">
-      <c r="A28" s="46">
-        <v>1025</v>
-      </c>
-      <c r="B28" s="46">
-        <v>17</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="35">
-        <v>8</v>
-      </c>
-      <c r="H28" s="35">
-        <f>G28-7</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14">
-        <v>1026</v>
-      </c>
-      <c r="B29" s="14">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
-    </row>
-    <row r="30" spans="1:12" ht="20" thickBot="1">
-      <c r="A30" s="14">
-        <v>1029</v>
-      </c>
-      <c r="B30" s="14">
-        <v>14</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="F30" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="35">
-        <v>8</v>
-      </c>
-      <c r="H30" s="35">
-        <f>G30-1</f>
-        <v>7</v>
-      </c>
-      <c r="I30" s="35">
-        <f>H30-6</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
